--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DBCC9B-79D3-A548-8338-504A073AB0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8931707-CCE9-1141-BE0A-690B9714052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1180" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="174">
   <si>
     <t>Logics</t>
   </si>
@@ -54,15 +54,9 @@
     <t>Test Size</t>
   </si>
   <si>
-    <t>Z3 (in 300s)</t>
-  </si>
-  <si>
     <t>Z3alpha</t>
   </si>
   <si>
-    <t>CVC5 (in 300s)</t>
-  </si>
-  <si>
     <t>Strategy (if not specified, cedar)</t>
   </si>
   <si>
@@ -568,6 +562,9 @@
   </si>
   <si>
     <t>42505 (2 min)</t>
+  </si>
+  <si>
+    <t>Z3</t>
   </si>
 </sst>
 </file>
@@ -1594,13 +1591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1609,12 +1606,12 @@
     <col min="2" max="2" width="22.6640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="10" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="10" customWidth="1"/>
-    <col min="5" max="7" width="24.83203125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="91.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="62.6640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="62.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="13" t="s">
         <v>0</v>
@@ -1626,30 +1623,27 @@
         <v>2</v>
       </c>
       <c r="E1" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+    </row>
+    <row r="2" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="C2" s="17" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>10</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19">
@@ -1658,17 +1652,16 @@
       <c r="F2" s="19">
         <v>434</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="G2" s="40"/>
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="1:8" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
       <c r="B3" s="20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21">
@@ -1677,17 +1670,16 @@
       <c r="F3" s="21">
         <v>2200</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="64"/>
-    </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="G3" s="41"/>
+      <c r="H3" s="64"/>
+    </row>
+    <row r="4" spans="1:8" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="58"/>
       <c r="B4" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21">
@@ -1696,36 +1688,34 @@
       <c r="F4" s="21">
         <v>114</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:9" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="41"/>
+      <c r="H4" s="64"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="23"/>
       <c r="E5" s="23">
         <v>3810</v>
       </c>
       <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="64"/>
-    </row>
-    <row r="6" spans="1:9" s="2" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="42"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26">
@@ -1734,340 +1724,318 @@
       <c r="F6" s="68">
         <v>5585</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="26"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="43"/>
+      <c r="H6" s="26"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="58" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
       <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="64"/>
-    </row>
-    <row r="8" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" s="40"/>
+      <c r="H7" s="64"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="58"/>
       <c r="B8" s="20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="64"/>
-    </row>
-    <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G8" s="41"/>
+      <c r="H8" s="64"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="58"/>
       <c r="B9" s="20" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
       <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="64"/>
-    </row>
-    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G9" s="41"/>
+      <c r="H9" s="64"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="58"/>
       <c r="B10" s="20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="64"/>
-    </row>
-    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G10" s="41"/>
+      <c r="H10" s="64"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="58"/>
       <c r="B11" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="64"/>
-    </row>
-    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G11" s="41"/>
+      <c r="H11" s="64"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="58"/>
       <c r="B12" s="20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="64"/>
-    </row>
-    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G12" s="41"/>
+      <c r="H12" s="64"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="58"/>
       <c r="B13" s="20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="64"/>
-    </row>
-    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G13" s="41"/>
+      <c r="H13" s="64"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
       <c r="B14" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="64"/>
-    </row>
-    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G14" s="41"/>
+      <c r="H14" s="64"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="58"/>
       <c r="B15" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="64"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="41"/>
+      <c r="H15" s="64"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="64"/>
-    </row>
-    <row r="17" spans="1:9" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="42"/>
+      <c r="H16" s="64"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="59" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D17" s="30"/>
       <c r="E17" s="30"/>
       <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="65"/>
-    </row>
-    <row r="18" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="44"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="59"/>
       <c r="B18" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="65"/>
-    </row>
-    <row r="19" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="41"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="59"/>
       <c r="B19" s="20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="65"/>
-    </row>
-    <row r="20" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="41"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59"/>
       <c r="B20" s="20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="65"/>
-    </row>
-    <row r="21" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="41"/>
+      <c r="H20" s="65"/>
+    </row>
+    <row r="21" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="59"/>
       <c r="B21" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="65"/>
-    </row>
-    <row r="22" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="41"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="59"/>
       <c r="B22" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="65"/>
-    </row>
-    <row r="23" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="41"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="59"/>
       <c r="B23" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="65"/>
-    </row>
-    <row r="24" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="41"/>
+      <c r="H23" s="65"/>
+    </row>
+    <row r="24" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="59"/>
       <c r="B24" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="65"/>
-    </row>
-    <row r="25" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="41"/>
+      <c r="H24" s="65"/>
+    </row>
+    <row r="25" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59"/>
       <c r="B25" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="65"/>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="41"/>
+      <c r="H25" s="65"/>
+    </row>
+    <row r="26" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59"/>
       <c r="B26" s="31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="65"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="45"/>
+      <c r="H26" s="65"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A27" s="60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27" s="19"/>
       <c r="E27" s="19"/>
       <c r="F27" s="19">
         <v>38</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="28" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G27" s="40"/>
+      <c r="H27" s="64"/>
+    </row>
+    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="60"/>
       <c r="B28" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21">
@@ -2076,34 +2044,32 @@
       <c r="F28" s="21">
         <v>1267</v>
       </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="64"/>
-    </row>
-    <row r="29" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G28" s="41"/>
+      <c r="H28" s="64"/>
+    </row>
+    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="60"/>
       <c r="B29" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21">
         <v>0</v>
       </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="64"/>
-    </row>
-    <row r="30" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G29" s="41"/>
+      <c r="H29" s="64"/>
+    </row>
+    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="60"/>
       <c r="B30" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21">
@@ -2112,34 +2078,32 @@
       <c r="F30" s="21">
         <v>1023</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="64"/>
-    </row>
-    <row r="31" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G30" s="41"/>
+      <c r="H30" s="64"/>
+    </row>
+    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="60"/>
       <c r="B31" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21">
         <v>978</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="64"/>
-    </row>
-    <row r="32" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G31" s="41"/>
+      <c r="H31" s="64"/>
+    </row>
+    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="60"/>
       <c r="B32" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21">
@@ -2148,553 +2112,518 @@
       <c r="F32" s="21">
         <v>3949</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="64"/>
-    </row>
-    <row r="33" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="41"/>
+      <c r="H32" s="64"/>
+    </row>
+    <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="60"/>
       <c r="B33" s="34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D33" s="23"/>
       <c r="E33" s="23">
         <v>6214</v>
       </c>
       <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="64"/>
-    </row>
-    <row r="34" spans="1:9" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="42"/>
+      <c r="H33" s="64"/>
+    </row>
+    <row r="34" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="65"/>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="44"/>
+      <c r="H34" s="65"/>
+    </row>
+    <row r="35" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
       <c r="B35" s="36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="45"/>
-      <c r="I35" s="65"/>
-    </row>
-    <row r="36" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="45"/>
+      <c r="H35" s="65"/>
+    </row>
+    <row r="36" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A36" s="62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="64"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G36" s="40"/>
+      <c r="H36" s="64"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="62"/>
       <c r="B37" s="37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D37" s="21"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="64"/>
-    </row>
-    <row r="38" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G37" s="41"/>
+      <c r="H37" s="64"/>
+    </row>
+    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="62"/>
       <c r="B38" s="38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D38" s="21"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="64"/>
-    </row>
-    <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="41"/>
+      <c r="H38" s="64"/>
+    </row>
+    <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="62"/>
       <c r="B39" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="23"/>
       <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="64"/>
-    </row>
-    <row r="40" spans="1:9" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="42"/>
+      <c r="H39" s="64"/>
+    </row>
+    <row r="40" spans="1:8" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D40" s="25"/>
       <c r="E40" s="25">
         <v>46191</v>
       </c>
       <c r="F40" s="69" t="s">
-        <v>174</v>
-      </c>
-      <c r="G40" s="25"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="25"/>
-    </row>
-    <row r="41" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="G40" s="46"/>
+      <c r="H40" s="25"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A41" s="58" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
       <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="66"/>
-    </row>
-    <row r="42" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="40"/>
+      <c r="H41" s="66"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
       <c r="B42" s="22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="23"/>
       <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="42"/>
-      <c r="I42" s="66"/>
-    </row>
-    <row r="43" spans="1:9" s="4" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="42"/>
+      <c r="H42" s="66"/>
+    </row>
+    <row r="43" spans="1:8" s="4" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="59" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C43" s="29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="44"/>
-      <c r="I43" s="65"/>
-    </row>
-    <row r="44" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G43" s="44"/>
+      <c r="H43" s="65"/>
+    </row>
+    <row r="44" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="59"/>
       <c r="B44" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D44" s="21"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="65"/>
-    </row>
-    <row r="45" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="41"/>
+      <c r="H44" s="65"/>
+    </row>
+    <row r="45" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="59"/>
       <c r="B45" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D45" s="21"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="65"/>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="41"/>
+      <c r="H45" s="65"/>
+    </row>
+    <row r="46" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="59"/>
       <c r="B46" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D46" s="33"/>
       <c r="E46" s="33"/>
       <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="65"/>
-    </row>
-    <row r="47" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="45"/>
+      <c r="H46" s="65"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A47" s="60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="64"/>
-    </row>
-    <row r="48" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G47" s="40"/>
+      <c r="H47" s="64"/>
+    </row>
+    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="60"/>
       <c r="B48" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D48" s="21"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="64"/>
-    </row>
-    <row r="49" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G48" s="41"/>
+      <c r="H48" s="64"/>
+    </row>
+    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="60"/>
       <c r="B49" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" s="21"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="64"/>
-    </row>
-    <row r="50" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G49" s="41"/>
+      <c r="H49" s="64"/>
+    </row>
+    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="60"/>
       <c r="B50" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D50" s="21"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
-      <c r="G50" s="21"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="64"/>
-    </row>
-    <row r="51" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G50" s="41"/>
+      <c r="H50" s="64"/>
+    </row>
+    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="60"/>
       <c r="B51" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" s="21"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="64"/>
-    </row>
-    <row r="52" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="G51" s="41"/>
+      <c r="H51" s="64"/>
+    </row>
+    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="60"/>
       <c r="B52" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D52" s="21"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="64"/>
-    </row>
-    <row r="53" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G52" s="41"/>
+      <c r="H52" s="64"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="60"/>
       <c r="B53" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C53" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D53" s="23"/>
       <c r="E53" s="23"/>
       <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="42"/>
-      <c r="I53" s="64"/>
-    </row>
-    <row r="54" spans="1:9" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="42"/>
+      <c r="H53" s="64"/>
+    </row>
+    <row r="54" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B54" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C54" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D54" s="30"/>
       <c r="E54" s="30"/>
       <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="44"/>
-      <c r="I54" s="65"/>
-    </row>
-    <row r="55" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G54" s="44"/>
+      <c r="H54" s="65"/>
+    </row>
+    <row r="55" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61"/>
       <c r="B55" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D55" s="21"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="65"/>
-    </row>
-    <row r="56" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="41"/>
+      <c r="H55" s="65"/>
+    </row>
+    <row r="56" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61"/>
       <c r="B56" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D56" s="21"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="65"/>
-    </row>
-    <row r="57" spans="1:9" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="41"/>
+      <c r="H56" s="65"/>
+    </row>
+    <row r="57" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A57" s="61"/>
       <c r="B57" s="31" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D57" s="33"/>
       <c r="E57" s="33"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="33"/>
-      <c r="H57" s="45"/>
-      <c r="I57" s="65"/>
-    </row>
-    <row r="58" spans="1:9" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G57" s="45"/>
+      <c r="H57" s="65"/>
+    </row>
+    <row r="58" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A58" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D58" s="19"/>
       <c r="E58" s="39"/>
       <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="40"/>
-      <c r="I58" s="66"/>
-    </row>
-    <row r="59" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G58" s="40"/>
+      <c r="H58" s="66"/>
+    </row>
+    <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
       <c r="B59" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="66"/>
-    </row>
-    <row r="60" spans="1:9" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="42"/>
+      <c r="H59" s="66"/>
+    </row>
+    <row r="60" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B60" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C60" s="29" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D60" s="30"/>
       <c r="E60" s="30"/>
       <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="44"/>
-      <c r="I60" s="65"/>
-    </row>
-    <row r="61" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="44"/>
+      <c r="H60" s="65"/>
+    </row>
+    <row r="61" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="63"/>
       <c r="B61" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
-      <c r="G61" s="21"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="65"/>
-    </row>
-    <row r="62" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="41"/>
+      <c r="H61" s="65"/>
+    </row>
+    <row r="62" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="63"/>
       <c r="B62" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="65"/>
-    </row>
-    <row r="63" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="41"/>
+      <c r="H62" s="65"/>
+    </row>
+    <row r="63" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A63" s="63"/>
       <c r="B63" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D63" s="21"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
-      <c r="G63" s="21"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="65"/>
-    </row>
-    <row r="64" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="41"/>
+      <c r="H63" s="65"/>
+    </row>
+    <row r="64" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A64" s="63"/>
       <c r="B64" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D64" s="21"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="65"/>
-    </row>
-    <row r="65" spans="1:9" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="41"/>
+      <c r="H64" s="65"/>
+    </row>
+    <row r="65" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A65" s="63"/>
       <c r="B65" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D65" s="21"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
-      <c r="G65" s="21"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="65"/>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="41"/>
+      <c r="H65" s="65"/>
+    </row>
+    <row r="66" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="63"/>
       <c r="B66" s="31" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C66" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D66" s="33"/>
       <c r="E66" s="33"/>
       <c r="F66" s="33"/>
-      <c r="G66" s="33"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="65"/>
-    </row>
-    <row r="67" spans="1:9" s="6" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G66" s="45"/>
+      <c r="H66" s="65"/>
+    </row>
+    <row r="67" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A67" s="58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19">
@@ -2704,16 +2633,15 @@
         <v>1942</v>
       </c>
       <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="66"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H67" s="66"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="58"/>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D68" s="21">
         <v>13306</v>
@@ -2722,33 +2650,31 @@
         <v>12700</v>
       </c>
       <c r="F68" s="21"/>
-      <c r="G68" s="21"/>
-      <c r="I68" s="66"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H68" s="66"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A69" s="58"/>
       <c r="B69" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69" s="23"/>
       <c r="E69" s="23"/>
       <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="66"/>
-    </row>
-    <row r="70" spans="1:9" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="42"/>
+      <c r="H69" s="66"/>
+    </row>
+    <row r="70" spans="1:8" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A70" s="63" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" s="29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D70" s="30">
         <v>1753</v>
@@ -2757,66 +2683,62 @@
         <v>1588</v>
       </c>
       <c r="F70" s="30"/>
-      <c r="G70" s="29"/>
-      <c r="H70" s="44"/>
-      <c r="I70" s="67"/>
-    </row>
-    <row r="71" spans="1:9" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G70" s="44"/>
+      <c r="H70" s="67"/>
+    </row>
+    <row r="71" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="63"/>
       <c r="B71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D71" s="33"/>
       <c r="E71" s="33"/>
       <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
-      <c r="H71" s="45"/>
-      <c r="I71" s="67"/>
-    </row>
-    <row r="72" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G71" s="45"/>
+      <c r="H71" s="67"/>
+    </row>
+    <row r="72" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A72" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="40"/>
-      <c r="I72" s="66"/>
-    </row>
-    <row r="73" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G72" s="40"/>
+      <c r="H72" s="66"/>
+    </row>
+    <row r="73" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="58"/>
       <c r="B73" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D73" s="23"/>
       <c r="E73" s="23"/>
       <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="66"/>
-    </row>
-    <row r="74" spans="1:9" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G73" s="42"/>
+      <c r="H73" s="66"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D74" s="25">
         <v>12154</v>
@@ -2827,16 +2749,15 @@
       <c r="F74" s="25">
         <v>11676</v>
       </c>
-      <c r="G74" s="25"/>
-      <c r="H74" s="46"/>
-      <c r="I74" s="25"/>
-    </row>
-    <row r="75" spans="1:9" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G74" s="46"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="63" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D75" s="30"/>
       <c r="E75" s="30">
@@ -2845,49 +2766,46 @@
       <c r="F75" s="30">
         <v>19201</v>
       </c>
-      <c r="G75" s="30"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="67"/>
-    </row>
-    <row r="76" spans="1:9" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="44"/>
+      <c r="H75" s="67"/>
+    </row>
+    <row r="76" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="63"/>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C76" s="29"/>
       <c r="E76" s="10">
         <v>79183</v>
       </c>
-      <c r="I76" s="67"/>
-    </row>
-    <row r="77" spans="1:9" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H76" s="67"/>
+    </row>
+    <row r="77" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="63"/>
       <c r="B77" s="48" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C77" s="47"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
       <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="67"/>
-    </row>
-    <row r="78" spans="1:9" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="G77" s="56"/>
+      <c r="H77" s="67"/>
+    </row>
+    <row r="78" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A78" s="49"/>
       <c r="B78" s="50"/>
       <c r="C78" s="17"/>
       <c r="D78" s="17"/>
       <c r="E78" s="17"/>
       <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
+      <c r="G78" s="57"/>
       <c r="H78" s="57"/>
-      <c r="I78" s="57"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="51"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="52"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
@@ -2901,23 +2819,23 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="H75:H77"/>
     <mergeCell ref="A75:A77"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="I7:I16"/>
-    <mergeCell ref="I17:I26"/>
-    <mergeCell ref="I27:I33"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="I47:I53"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I60:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H7:H16"/>
+    <mergeCell ref="H17:H26"/>
+    <mergeCell ref="H27:H33"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H53"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="H72:H73"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="A60:A66"/>
     <mergeCell ref="A67:A69"/>
@@ -2967,32 +2885,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -3011,37 +2929,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3062,37 +2980,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
@@ -3116,27 +3034,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3157,37 +3075,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3208,27 +3126,27 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3249,47 +3167,47 @@
   <sheetData>
     <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3311,57 +3229,57 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17">
         <v>19122</v>
@@ -3369,7 +3287,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B18">
         <v>18655</v>
@@ -3393,52 +3311,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3459,42 +3377,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.25">
@@ -3502,12 +3420,12 @@
     </row>
     <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="19" x14ac:dyDescent="0.25">
@@ -3515,7 +3433,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,22 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8931707-CCE9-1141-BE0A-690B9714052E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8D618-6144-B44F-A7BA-B17DB08E9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1180" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
-    <sheet name="QF_SLIA" sheetId="2" r:id="rId2"/>
-    <sheet name="QF_UFDT" sheetId="3" r:id="rId3"/>
-    <sheet name="QF_DT" sheetId="4" r:id="rId4"/>
-    <sheet name="QF_RDL" sheetId="5" r:id="rId5"/>
-    <sheet name="QF_LRA" sheetId="6" r:id="rId6"/>
-    <sheet name="QF_NIA" sheetId="7" r:id="rId7"/>
-    <sheet name="QF_BV" sheetId="8" r:id="rId8"/>
-    <sheet name="QF_NRA" sheetId="9" r:id="rId9"/>
-    <sheet name="QF_LIA" sheetId="10" r:id="rId10"/>
-    <sheet name="QF_S" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="105">
   <si>
     <t>Logics</t>
   </si>
@@ -352,213 +342,6 @@
   </si>
   <si>
     <t>QF_SNIA</t>
-  </si>
-  <si>
-    <t>not solved within 2 sec/total size: 13041/84395</t>
-  </si>
-  <si>
-    <t>retain rate: 15.45%</t>
-  </si>
-  <si>
-    <t>Picked 235 = 5*47 instances for s1</t>
-  </si>
-  <si>
-    <t>S1 Time Est: 5 * 20 * 750 / 3600 = 21</t>
-  </si>
-  <si>
-    <t>select 5 linear strategies</t>
-  </si>
-  <si>
-    <t>Select 470=47*10  instances for s2-300s</t>
-  </si>
-  <si>
-    <t>Expect time: 10 * 300 *5 / 3600 = 4.1 hr</t>
-  </si>
-  <si>
-    <t>Use all 203 = 7*31 instances for s1</t>
-  </si>
-  <si>
-    <t>S1 Time Est: 7 *15 * 600 / 3600 = 17.5</t>
-  </si>
-  <si>
-    <t>Select 5 linear strategies</t>
-  </si>
-  <si>
-    <t>Select 203=31*7  instances for s2</t>
-  </si>
-  <si>
-    <t>Expect time: 7 * 300 *5 / 3600 = 2.9hr</t>
-  </si>
-  <si>
-    <t>not solved within 1 sec/total size: 566/8700</t>
-  </si>
-  <si>
-    <t>retain rate: 6.51%</t>
-  </si>
-  <si>
-    <t>Picked 186 = 6*31 instances for s1</t>
-  </si>
-  <si>
-    <t>S1 Time Est: 6 *15 * 600 / 3600 = 15</t>
-  </si>
-  <si>
-    <t>Select 566=31*19  instances for s2</t>
-  </si>
-  <si>
-    <t>Expect time: 18 * 300 *5 / 3600 = 7.9hr</t>
-  </si>
-  <si>
-    <t>All 255 = 6*47 instances for s1</t>
-  </si>
-  <si>
-    <t>S1 Time Est: 5 * 20 * 750 / 3600 = 25</t>
-  </si>
-  <si>
-    <t>All 255 =5*47  instances for s2</t>
-  </si>
-  <si>
-    <t>Expect time: 5 * 5 * 5 / 60 = 2.1hr</t>
-  </si>
-  <si>
-    <t>not solved within 10 sec/total size: 503/1753</t>
-  </si>
-  <si>
-    <t>retain rate: 28.69%</t>
-  </si>
-  <si>
-    <t>S1 Time Est: 5 * 24 * 800 / 3600 = 26.7</t>
-  </si>
-  <si>
-    <t>gt10 as s2: 503 - 11 batches</t>
-  </si>
-  <si>
-    <t>select 9 linear strategies</t>
-  </si>
-  <si>
-    <t>Expect time: 11 * 300 * 9 / 3600 = 8.25hr</t>
-  </si>
-  <si>
-    <t>300s results: /home/z52lu/z3alpha/experiments/results/out-2024-05-20_06-55-12_qfnia_s2_300</t>
-  </si>
-  <si>
-    <t>Total time est: 26.7+8.25+6 = 41 hrs</t>
-  </si>
-  <si>
-    <t>not solved within 16 sec/total size: 11161/25443</t>
-  </si>
-  <si>
-    <t>retain rate: 43.87%</t>
-  </si>
-  <si>
-    <t>Picked 282 instances for s1</t>
-  </si>
-  <si>
-    <t>Select 12 linear strategies</t>
-  </si>
-  <si>
-    <t>Select 3760  instances for s2-24s</t>
-  </si>
-  <si>
-    <t>Expect time: 80 *24 *12 / 3600 = 6.4 hr</t>
-  </si>
-  <si>
-    <t>24s results: /home/z52lu/z3alpha/experiments/results/out-2024-05-14_13-00-49_qfnia_s2_24</t>
-  </si>
-  <si>
-    <t>Expect time: 10 * 300 *12 / 3600 = 10 hr</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>/home/z52lu/z3alpha/experiments/results/out-2024-05-20_06-55-12_qfnia_s2_300</t>
-  </si>
-  <si>
-    <t>not solved within 25 sec/total size: 5449/46191</t>
-  </si>
-  <si>
-    <t>retain rate: 11.80%</t>
-  </si>
-  <si>
-    <t>Select 9 linear strategies</t>
-  </si>
-  <si>
-    <t>Select 564=47*12 instances for s2-300s</t>
-  </si>
-  <si>
-    <t>Expect time: 12 * 300 * 9 / 3600 = 9 hr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test set: </t>
-  </si>
-  <si>
-    <t>not solved within 3 sec/total size: 9725/46191</t>
-  </si>
-  <si>
-    <t>retain rate: 21.05%</t>
-  </si>
-  <si>
-    <t>not solved within 5 sec/total size: 1791/12154</t>
-  </si>
-  <si>
-    <t>retain rate: 14.74%</t>
-  </si>
-  <si>
-    <t>Picked 188 = 4*47 for s1</t>
-  </si>
-  <si>
-    <t>S1 Time Est: 4 * 24 * 800 / 3600 = 21.3</t>
-  </si>
-  <si>
-    <t>Select 10  linear strategies for 24s</t>
-  </si>
-  <si>
-    <t>Use gt5 as s2-24s</t>
-  </si>
-  <si>
-    <t>/home/z52lu/z3alpha/experiments/results/out-2024-05-14_09-23-18_qfnra_s2_24/final_strategy1.txt</t>
-  </si>
-  <si>
-    <t>Select 8 linear strategies for 300s</t>
-  </si>
-  <si>
-    <t>Expect time: 12 * 300 * 8 / 3600 = 8 hr</t>
-  </si>
-  <si>
-    <t>/home/z52lu/z3alpha/experiments/results/out-2024-05-21_06-55-11_qfnra_s2_300/final_strategy1.txt</t>
-  </si>
-  <si>
-    <t>not solved within 5 sec/total size: 3980/13306</t>
-  </si>
-  <si>
-    <t>retain rate: 29.91%</t>
-  </si>
-  <si>
-    <t>Select 11 linear strategies</t>
-  </si>
-  <si>
-    <t>Select 470=47*10  instances for s2</t>
-  </si>
-  <si>
-    <t>Expect time: 10 * 300 *11 / 3600 = 9.2hr</t>
-  </si>
-  <si>
-    <t>/home/z52lu/z3alpha/experiments/results/out-2024-05-21_07-37-49_qflia_s2_300/final_strategy1.txt</t>
-  </si>
-  <si>
-    <t>not solved within 3 sec/total size: 535/18940</t>
-  </si>
-  <si>
-    <t>retain rate: 2.82%</t>
-  </si>
-  <si>
-    <t>S1 Time Est: 6 *15 * 800 / 3600 = 20</t>
-  </si>
-  <si>
-    <t>Select 535=31*18  instances for s2</t>
-  </si>
-  <si>
-    <t>Expect time: 18 * 300 *5 / 3600 = 7.5hr</t>
   </si>
   <si>
     <t>42505 (2 min)</t>
@@ -571,17 +354,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
     </font>
     <font>
       <b/>
@@ -906,11 +684,10 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -923,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -935,16 +712,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1001,16 +778,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1040,25 +817,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1067,22 +844,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1097,16 +874,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1597,1225 +1374,1225 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="10" customWidth="1"/>
-    <col min="5" max="6" width="24.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="9" customWidth="1"/>
+    <col min="5" max="6" width="24.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="62.6640625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19">
+      <c r="D2" s="18"/>
+      <c r="E2" s="18">
         <v>387</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>434</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="64"/>
-    </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
-      <c r="B3" s="20" t="s">
+      <c r="G2" s="39"/>
+      <c r="H2" s="63"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="57"/>
+      <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20">
         <v>2177</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3" s="20">
         <v>2200</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="64"/>
-    </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
-      <c r="B4" s="20" t="s">
+      <c r="G3" s="40"/>
+      <c r="H3" s="63"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="57"/>
+      <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21">
+      <c r="C4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20">
         <v>210</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>114</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="64"/>
-    </row>
-    <row r="5" spans="1:8" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
-      <c r="B5" s="22" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="63"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22">
         <v>3810</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="64"/>
-    </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="F5" s="22"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="63"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25">
         <v>6185</v>
       </c>
-      <c r="F6" s="68">
+      <c r="F6" s="67">
         <v>5585</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="26"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="64"/>
+      <c r="C7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="63"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="58"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="57"/>
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="64"/>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="63"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="58"/>
-      <c r="B9" s="20" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="64"/>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="63"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="58"/>
-      <c r="B10" s="20" t="s">
+      <c r="A10" s="57"/>
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="64"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="63"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="58"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="64"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="63"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="58"/>
-      <c r="B12" s="20" t="s">
+      <c r="A12" s="57"/>
+      <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="64"/>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="63"/>
     </row>
     <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="20" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="64"/>
+      <c r="C13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="63"/>
     </row>
     <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="57"/>
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="64"/>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="63"/>
     </row>
     <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="20" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="64"/>
+      <c r="C15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="63"/>
     </row>
     <row r="16" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="57"/>
+      <c r="B16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="64"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="63"/>
+    </row>
+    <row r="17" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="65"/>
+      <c r="C17" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="64"/>
     </row>
     <row r="18" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="58"/>
+      <c r="B18" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="65"/>
+      <c r="C18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="64"/>
     </row>
     <row r="19" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="58"/>
+      <c r="B19" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="65"/>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="64"/>
     </row>
     <row r="20" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="58"/>
+      <c r="B20" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="65"/>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="64"/>
     </row>
     <row r="21" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="58"/>
+      <c r="B21" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="65"/>
+      <c r="C21" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="64"/>
     </row>
     <row r="22" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="58"/>
+      <c r="B22" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="65"/>
+      <c r="C22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="64"/>
     </row>
     <row r="23" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
-      <c r="B23" s="20" t="s">
+      <c r="A23" s="58"/>
+      <c r="B23" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="65"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="64"/>
     </row>
     <row r="24" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="58"/>
+      <c r="B24" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="65"/>
+      <c r="C24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="64"/>
     </row>
     <row r="25" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="58"/>
+      <c r="B25" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="65"/>
-    </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59"/>
-      <c r="B26" s="31" t="s">
+      <c r="C25" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="64"/>
+    </row>
+    <row r="26" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="58"/>
+      <c r="B26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="65"/>
+      <c r="C26" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="64"/>
     </row>
     <row r="27" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19">
+      <c r="C27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18">
         <v>38</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="64"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="63"/>
     </row>
     <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="60"/>
-      <c r="B28" s="20" t="s">
+      <c r="A28" s="59"/>
+      <c r="B28" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21">
+      <c r="C28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20">
         <v>1265</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>1267</v>
       </c>
-      <c r="G28" s="41"/>
-      <c r="H28" s="64"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="63"/>
     </row>
     <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A29" s="60"/>
-      <c r="B29" s="20" t="s">
+      <c r="A29" s="59"/>
+      <c r="B29" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21">
+      <c r="C29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20">
         <v>0</v>
       </c>
-      <c r="G29" s="41"/>
-      <c r="H29" s="64"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="63"/>
     </row>
     <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A30" s="60"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="59"/>
+      <c r="B30" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20">
         <v>1029</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>1023</v>
       </c>
-      <c r="G30" s="41"/>
-      <c r="H30" s="64"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="60"/>
-      <c r="B31" s="20" t="s">
+      <c r="A31" s="59"/>
+      <c r="B31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21">
+      <c r="C31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20">
         <v>978</v>
       </c>
-      <c r="G31" s="41"/>
-      <c r="H31" s="64"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="63"/>
     </row>
     <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="60"/>
-      <c r="B32" s="20" t="s">
+      <c r="A32" s="59"/>
+      <c r="B32" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21">
+      <c r="C32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20">
         <v>3935</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>3949</v>
       </c>
-      <c r="G32" s="41"/>
-      <c r="H32" s="64"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="63"/>
     </row>
     <row r="33" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="60"/>
-      <c r="B33" s="34" t="s">
+      <c r="A33" s="59"/>
+      <c r="B33" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22">
         <v>6214</v>
       </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="64"/>
-    </row>
-    <row r="34" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="61" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="63"/>
+    </row>
+    <row r="34" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="65"/>
-    </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="61"/>
-      <c r="B35" s="36" t="s">
+      <c r="C34" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="64"/>
+    </row>
+    <row r="35" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="60"/>
+      <c r="B35" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="65"/>
+      <c r="C35" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="64"/>
     </row>
     <row r="36" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
+      <c r="A36" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="64"/>
+      <c r="C36" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
-      <c r="B37" s="37" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="64"/>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="63"/>
     </row>
     <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="38" t="s">
+      <c r="A38" s="61"/>
+      <c r="B38" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="64"/>
+      <c r="C38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="63"/>
     </row>
     <row r="39" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="62"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="61"/>
+      <c r="B39" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="64"/>
-    </row>
-    <row r="40" spans="1:8" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="C39" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="63"/>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>53</v>
       </c>
       <c r="B40" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25">
+      <c r="D40" s="24">
         <v>46191</v>
       </c>
-      <c r="F40" s="69" t="s">
-        <v>172</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="25"/>
+      <c r="E40" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="F40" s="68"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="24"/>
     </row>
     <row r="41" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58" t="s">
+      <c r="A41" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="66"/>
+      <c r="C41" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="65"/>
     </row>
     <row r="42" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="58"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="57"/>
+      <c r="B42" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="66"/>
-    </row>
-    <row r="43" spans="1:8" s="4" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="59" t="s">
+      <c r="C42" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="65"/>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="29" t="s">
+      <c r="C43" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="65"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="64"/>
     </row>
     <row r="44" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="59"/>
-      <c r="B44" s="20" t="s">
+      <c r="A44" s="58"/>
+      <c r="B44" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="65"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="64"/>
     </row>
     <row r="45" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59"/>
-      <c r="B45" s="20" t="s">
+      <c r="A45" s="58"/>
+      <c r="B45" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="65"/>
-    </row>
-    <row r="46" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="31" t="s">
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="64"/>
+    </row>
+    <row r="46" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="58"/>
+      <c r="B46" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="65"/>
+      <c r="C46" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="64"/>
     </row>
     <row r="47" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="60" t="s">
+      <c r="A47" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="64"/>
+      <c r="C47" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="63"/>
     </row>
     <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A48" s="60"/>
-      <c r="B48" s="20" t="s">
+      <c r="A48" s="59"/>
+      <c r="B48" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="64"/>
+      <c r="C48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="63"/>
     </row>
     <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="60"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="59"/>
+      <c r="B49" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="64"/>
+      <c r="C49" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="63"/>
     </row>
     <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="60"/>
-      <c r="B50" s="20" t="s">
+      <c r="A50" s="59"/>
+      <c r="B50" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="64"/>
+      <c r="C50" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="63"/>
     </row>
     <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A51" s="60"/>
-      <c r="B51" s="20" t="s">
+      <c r="A51" s="59"/>
+      <c r="B51" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="64"/>
+      <c r="C51" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="63"/>
     </row>
     <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="60"/>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="59"/>
+      <c r="B52" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="41"/>
-      <c r="H52" s="64"/>
+      <c r="C52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="63"/>
     </row>
     <row r="53" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="60"/>
-      <c r="B53" s="22" t="s">
+      <c r="A53" s="59"/>
+      <c r="B53" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="42"/>
-      <c r="H53" s="64"/>
-    </row>
-    <row r="54" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="61" t="s">
+      <c r="C53" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="63"/>
+    </row>
+    <row r="54" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="44"/>
-      <c r="H54" s="65"/>
+      <c r="C54" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="64"/>
     </row>
     <row r="55" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="61"/>
-      <c r="B55" s="20" t="s">
+      <c r="A55" s="60"/>
+      <c r="B55" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="65"/>
+      <c r="C55" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="64"/>
     </row>
     <row r="56" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="61"/>
-      <c r="B56" s="20" t="s">
+      <c r="A56" s="60"/>
+      <c r="B56" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="65"/>
-    </row>
-    <row r="57" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="61"/>
-      <c r="B57" s="31" t="s">
+      <c r="C56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="64"/>
+    </row>
+    <row r="57" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="60"/>
+      <c r="B57" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="33"/>
-      <c r="G57" s="45"/>
-      <c r="H57" s="65"/>
+      <c r="C57" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="64"/>
     </row>
     <row r="58" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="66"/>
+      <c r="C58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="65"/>
     </row>
     <row r="59" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="66"/>
-    </row>
-    <row r="60" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="63" t="s">
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="65"/>
+    </row>
+    <row r="60" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="62" t="s">
         <v>79</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="30"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="44"/>
-      <c r="H60" s="65"/>
+      <c r="C60" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="43"/>
+      <c r="H60" s="64"/>
     </row>
     <row r="61" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="20" t="s">
+      <c r="A61" s="62"/>
+      <c r="B61" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="41"/>
-      <c r="H61" s="65"/>
+      <c r="C61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="64"/>
     </row>
     <row r="62" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="62"/>
+      <c r="B62" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="21"/>
-      <c r="E62" s="21"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="65"/>
+      <c r="C62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="62"/>
+      <c r="B63" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="65"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="64"/>
     </row>
     <row r="64" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="20" t="s">
+      <c r="A64" s="62"/>
+      <c r="B64" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="65"/>
+      <c r="C64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="64"/>
     </row>
     <row r="65" spans="1:8" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="20" t="s">
+      <c r="A65" s="62"/>
+      <c r="B65" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="21"/>
-      <c r="E65" s="21"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="65"/>
-    </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="63"/>
-      <c r="B66" s="31" t="s">
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="64"/>
+    </row>
+    <row r="66" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="62"/>
+      <c r="B66" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C66" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="33"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="65"/>
-    </row>
-    <row r="67" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="58" t="s">
+      <c r="C66" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="64"/>
+    </row>
+    <row r="67" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19">
+      <c r="D67" s="18"/>
+      <c r="E67" s="18">
         <v>1879</v>
       </c>
-      <c r="F67" s="19">
+      <c r="F67" s="18">
         <v>1942</v>
       </c>
-      <c r="G67" s="19"/>
-      <c r="H67" s="66"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="65"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="58"/>
+      <c r="A68" s="57"/>
       <c r="B68" t="s">
         <v>89</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="21">
+      <c r="D68" s="20">
         <v>13306</v>
       </c>
-      <c r="E68" s="70">
+      <c r="E68" s="69">
         <v>12700</v>
       </c>
-      <c r="F68" s="21"/>
-      <c r="H68" s="66"/>
+      <c r="F68" s="20"/>
+      <c r="H68" s="65"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="22" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="C69" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="66"/>
-    </row>
-    <row r="70" spans="1:8" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="63" t="s">
+      <c r="C69" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="65"/>
+    </row>
+    <row r="70" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="62" t="s">
         <v>91</v>
       </c>
       <c r="B70" t="s">
         <v>92</v>
       </c>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="30">
+      <c r="D70" s="29">
         <v>1753</v>
       </c>
-      <c r="E70" s="71">
+      <c r="E70" s="70">
         <v>1588</v>
       </c>
-      <c r="F70" s="30"/>
-      <c r="G70" s="44"/>
-      <c r="H70" s="67"/>
-    </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="63"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="43"/>
+      <c r="H70" s="66"/>
+    </row>
+    <row r="71" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="62"/>
       <c r="B71" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="33"/>
-      <c r="G71" s="45"/>
-      <c r="H71" s="67"/>
+      <c r="C71" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="66"/>
     </row>
     <row r="72" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="58" t="s">
+      <c r="A72" s="57" t="s">
         <v>94</v>
       </c>
       <c r="B72" t="s">
         <v>95</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="40"/>
-      <c r="H72" s="66"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="65"/>
     </row>
     <row r="73" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-      <c r="B73" s="22" t="s">
+      <c r="A73" s="57"/>
+      <c r="B73" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="66"/>
-    </row>
-    <row r="74" spans="1:8" s="2" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="C73" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="65"/>
+    </row>
+    <row r="74" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
         <v>97</v>
       </c>
       <c r="B74" t="s">
         <v>98</v>
       </c>
-      <c r="C74" s="25" t="s">
+      <c r="C74" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D74" s="25">
+      <c r="D74" s="24">
         <v>12154</v>
       </c>
-      <c r="E74" s="69">
+      <c r="E74" s="68">
         <v>11569</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="24">
         <v>11676</v>
       </c>
-      <c r="G74" s="46"/>
-      <c r="H74" s="25"/>
-    </row>
-    <row r="75" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="63" t="s">
+      <c r="G74" s="45"/>
+      <c r="H74" s="24"/>
+    </row>
+    <row r="75" spans="1:8" s="3" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="62" t="s">
         <v>99</v>
       </c>
       <c r="B75" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="30"/>
-      <c r="E75" s="30">
+      <c r="D75" s="29"/>
+      <c r="E75" s="29">
         <v>19210</v>
       </c>
-      <c r="F75" s="30">
+      <c r="F75" s="29">
         <v>19201</v>
       </c>
-      <c r="G75" s="44"/>
-      <c r="H75" s="67"/>
+      <c r="G75" s="43"/>
+      <c r="H75" s="66"/>
     </row>
     <row r="76" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
+      <c r="A76" s="62"/>
       <c r="B76" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="29"/>
-      <c r="E76" s="10">
+      <c r="C76" s="28"/>
+      <c r="E76" s="9">
         <v>79183</v>
       </c>
-      <c r="H76" s="67"/>
-    </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="63"/>
-      <c r="B77" s="48" t="s">
+      <c r="H76" s="66"/>
+    </row>
+    <row r="77" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="C77" s="47"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="67"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="55"/>
+      <c r="H77" s="66"/>
     </row>
     <row r="78" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="49"/>
-      <c r="B78" s="50"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="57"/>
-      <c r="H78" s="57"/>
+      <c r="A78" s="48"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="56"/>
+      <c r="H78" s="56"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="51"/>
+      <c r="A79" s="50"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="52"/>
+      <c r="A80" s="51"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="53"/>
+      <c r="A81" s="52"/>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="54"/>
+      <c r="A82" s="53"/>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="55"/>
+      <c r="A83" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -2873,571 +2650,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:A9"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:A14"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="84.6640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B17">
-        <v>19122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18">
-        <v>18655</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:A15"/>
-  <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:A17"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
 </file>
--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE8D618-6144-B44F-A7BA-B17DB08E9BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525BF822-174F-3B47-8405-C1B371C41D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1180" windowWidth="38400" windowHeight="21600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1374,7 +1374,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,7 +1458,9 @@
       <c r="C4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="20"/>
+      <c r="D4" s="20">
+        <v>257</v>
+      </c>
       <c r="E4" s="20">
         <v>210</v>
       </c>
@@ -1494,13 +1496,13 @@
       <c r="C6" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25">
+      <c r="D6" s="25">
         <v>6185</v>
       </c>
-      <c r="F6" s="67">
+      <c r="E6" s="67">
         <v>5585</v>
       </c>
+      <c r="F6" s="67"/>
       <c r="G6" s="42"/>
       <c r="H6" s="25"/>
     </row>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2A9B09-6EC1-D04F-AA53-07CE9B3AC670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FADC08-59AF-C342-B97A-9589EB728896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38000" yWindow="-680" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-680" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>Logics</t>
   </si>
@@ -162,13 +162,46 @@
   </si>
   <si>
     <t>Z3</t>
+  </si>
+  <si>
+    <t>434 [1 core]</t>
+  </si>
+  <si>
+    <t>2200 [1 core]</t>
+  </si>
+  <si>
+    <t>114 [1 core, strategy to be updated]</t>
+  </si>
+  <si>
+    <t>38 [1 core]</t>
+  </si>
+  <si>
+    <t>1267 [1 core]</t>
+  </si>
+  <si>
+    <t>0 [1 core]</t>
+  </si>
+  <si>
+    <t>1023 [1 core]</t>
+  </si>
+  <si>
+    <t>978 [1 core]</t>
+  </si>
+  <si>
+    <t>3949 [1 core]</t>
+  </si>
+  <si>
+    <t>1942 [1 core]</t>
+  </si>
+  <si>
+    <t>19201 [1 core]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -203,6 +236,11 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="7">
@@ -456,7 +494,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -609,23 +647,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,7 +1162,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1124,7 +1171,8 @@
     <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="9" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="9" customWidth="1"/>
-    <col min="5" max="6" width="24.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="39" style="9" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="10" customWidth="1"/>
     <col min="8" max="8" width="62.6640625" style="10" customWidth="1"/>
   </cols>
@@ -1154,7 +1202,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="54" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -1167,14 +1215,14 @@
       <c r="E2" s="18">
         <v>387</v>
       </c>
-      <c r="F2" s="18">
-        <v>434</v>
+      <c r="F2" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="G2" s="32"/>
-      <c r="H2" s="56"/>
+      <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="58"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
@@ -1185,14 +1233,14 @@
       <c r="E3" s="20">
         <v>2177</v>
       </c>
-      <c r="F3" s="20">
-        <v>2200</v>
+      <c r="F3" s="61" t="s">
+        <v>44</v>
       </c>
       <c r="G3" s="33"/>
-      <c r="H3" s="56"/>
+      <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="58"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
@@ -1205,14 +1253,14 @@
       <c r="E4" s="20">
         <v>210</v>
       </c>
-      <c r="F4" s="20">
-        <v>114</v>
+      <c r="F4" s="61" t="s">
+        <v>45</v>
       </c>
       <c r="G4" s="33"/>
-      <c r="H4" s="56"/>
+      <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
@@ -1225,7 +1273,7 @@
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="56"/>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -1248,7 +1296,7 @@
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="55" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -1259,14 +1307,14 @@
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="18">
-        <v>38</v>
+      <c r="F7" s="60" t="s">
+        <v>46</v>
       </c>
       <c r="G7" s="32"/>
-      <c r="H7" s="56"/>
+      <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="59"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
@@ -1277,14 +1325,14 @@
       <c r="E8" s="20">
         <v>1265</v>
       </c>
-      <c r="F8" s="20">
-        <v>1267</v>
+      <c r="F8" s="61" t="s">
+        <v>47</v>
       </c>
       <c r="G8" s="33"/>
-      <c r="H8" s="56"/>
+      <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
@@ -1293,14 +1341,14 @@
       </c>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
-      <c r="F9" s="20">
-        <v>0</v>
+      <c r="F9" s="61" t="s">
+        <v>48</v>
       </c>
       <c r="G9" s="33"/>
-      <c r="H9" s="56"/>
+      <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
@@ -1311,14 +1359,14 @@
       <c r="E10" s="20">
         <v>1029</v>
       </c>
-      <c r="F10" s="20">
-        <v>1023</v>
+      <c r="F10" s="61" t="s">
+        <v>49</v>
       </c>
       <c r="G10" s="33"/>
-      <c r="H10" s="56"/>
+      <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="59"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="19" t="s">
         <v>20</v>
       </c>
@@ -1327,14 +1375,14 @@
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="20">
-        <v>978</v>
+      <c r="F11" s="61" t="s">
+        <v>50</v>
       </c>
       <c r="G11" s="33"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="19" t="s">
         <v>21</v>
       </c>
@@ -1345,14 +1393,14 @@
       <c r="E12" s="20">
         <v>3935</v>
       </c>
-      <c r="F12" s="20">
-        <v>3949</v>
+      <c r="F12" s="61" t="s">
+        <v>51</v>
       </c>
       <c r="G12" s="33"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="31" t="s">
         <v>22</v>
       </c>
@@ -1365,7 +1413,7 @@
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="34"/>
-      <c r="H13" s="56"/>
+      <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
@@ -1388,7 +1436,7 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="54" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -1401,14 +1449,14 @@
       <c r="E15" s="18">
         <v>1879</v>
       </c>
-      <c r="F15" s="18">
-        <v>1942</v>
+      <c r="F15" s="60" t="s">
+        <v>52</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="57"/>
+      <c r="H15" s="56"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
+      <c r="A16" s="54"/>
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -1422,10 +1470,10 @@
         <v>12700</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="H16" s="57"/>
+      <c r="H16" s="56"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="21" t="s">
         <v>28</v>
       </c>
@@ -1436,10 +1484,10 @@
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="57"/>
+      <c r="H17" s="56"/>
     </row>
     <row r="18" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="57" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
@@ -1456,10 +1504,10 @@
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="54"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
+      <c r="A19" s="57"/>
       <c r="B19" t="s">
         <v>31</v>
       </c>
@@ -1470,10 +1518,10 @@
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="37"/>
-      <c r="H19" s="54"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58" t="s">
+      <c r="A20" s="54" t="s">
         <v>32</v>
       </c>
       <c r="B20" t="s">
@@ -1486,10 +1534,10 @@
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="57"/>
+      <c r="H20" s="56"/>
     </row>
     <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="54"/>
       <c r="B21" s="21" t="s">
         <v>34</v>
       </c>
@@ -1500,7 +1548,7 @@
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="57"/>
+      <c r="H21" s="56"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
@@ -1524,8 +1572,8 @@
       <c r="G22" s="38"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B23" t="s">
@@ -1535,14 +1583,14 @@
       <c r="E23" s="28">
         <v>19210</v>
       </c>
-      <c r="F23" s="28">
-        <v>19201</v>
+      <c r="F23" s="62" t="s">
+        <v>53</v>
       </c>
       <c r="G23" s="36"/>
-      <c r="H23" s="54"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="57"/>
       <c r="B24" t="s">
         <v>39</v>
       </c>
@@ -1550,10 +1598,10 @@
       <c r="E24" s="9">
         <v>79183</v>
       </c>
-      <c r="H24" s="54"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="57"/>
       <c r="B25" s="40" t="s">
         <v>40</v>
       </c>
@@ -1562,7 +1610,7 @@
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="54"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>
@@ -1591,18 +1639,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H18:H19"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H7:H13"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FADC08-59AF-C342-B97A-9589EB728896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC09E0-8834-7149-81E9-DED8019D8388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-680" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Logics</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>NIA</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">NRA </t>
@@ -494,7 +491,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -647,32 +644,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1162,7 +1169,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,7 +1196,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>3</v>
@@ -1202,72 +1209,70 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="18"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="18">
+        <v>536</v>
+      </c>
       <c r="E2" s="18">
         <v>387</v>
       </c>
-      <c r="F2" s="60" t="s">
-        <v>43</v>
+      <c r="F2" s="54" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="32"/>
       <c r="H2" s="59"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="54"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="20"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="20">
+        <v>2439</v>
+      </c>
       <c r="E3" s="20">
         <v>2177</v>
       </c>
-      <c r="F3" s="61" t="s">
-        <v>44</v>
+      <c r="F3" s="55" t="s">
+        <v>43</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="59"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="54"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="C4" s="16"/>
       <c r="D4" s="20">
         <v>257</v>
       </c>
       <c r="E4" s="20">
         <v>210</v>
       </c>
-      <c r="F4" s="61" t="s">
-        <v>45</v>
+      <c r="F4" s="55" t="s">
+        <v>44</v>
       </c>
       <c r="G4" s="33"/>
       <c r="H4" s="59"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="22"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="22">
+        <v>3819</v>
+      </c>
       <c r="E5" s="22">
         <v>3810</v>
       </c>
@@ -1277,14 +1282,12 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="C6" s="24"/>
       <c r="D6" s="25">
         <v>6185</v>
       </c>
@@ -1296,118 +1299,113 @@
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="55" t="s">
+      <c r="A7" s="62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="18"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="18">
+        <v>78</v>
+      </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="60" t="s">
-        <v>46</v>
+      <c r="F7" s="54" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="32"/>
       <c r="H7" s="59"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="55"/>
-      <c r="B8" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="20"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1567</v>
+      </c>
       <c r="E8" s="20">
         <v>1265</v>
       </c>
-      <c r="F8" s="61" t="s">
-        <v>47</v>
+      <c r="F8" s="55" t="s">
+        <v>46</v>
       </c>
       <c r="G8" s="33"/>
       <c r="H8" s="59"/>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="55"/>
-      <c r="B9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="20"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="20">
+        <v>3</v>
+      </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="61" t="s">
-        <v>48</v>
+      <c r="F9" s="55" t="s">
+        <v>47</v>
       </c>
       <c r="G9" s="33"/>
       <c r="H9" s="59"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="55"/>
-      <c r="B10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="20"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1480</v>
+      </c>
       <c r="E10" s="20">
         <v>1029</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>49</v>
+      <c r="F10" s="55" t="s">
+        <v>48</v>
       </c>
       <c r="G10" s="33"/>
       <c r="H10" s="59"/>
     </row>
     <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="55"/>
-      <c r="B11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="20"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="20">
+        <v>1010</v>
+      </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="61" t="s">
-        <v>50</v>
+      <c r="F11" s="55" t="s">
+        <v>49</v>
       </c>
       <c r="G11" s="33"/>
       <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="55"/>
-      <c r="B12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="20"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="20">
+        <v>4424</v>
+      </c>
       <c r="E12" s="20">
         <v>3935</v>
       </c>
-      <c r="F12" s="61" t="s">
-        <v>51</v>
+      <c r="F12" s="55" t="s">
+        <v>50</v>
       </c>
       <c r="G12" s="33"/>
       <c r="H12" s="59"/>
     </row>
     <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="62"/>
       <c r="B13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="22"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="22">
+        <v>13532</v>
+      </c>
       <c r="E13" s="22">
         <v>6214</v>
       </c>
@@ -1417,51 +1415,46 @@
     </row>
     <row r="14" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>8</v>
-      </c>
+      <c r="C14" s="24"/>
       <c r="D14" s="24">
         <v>46191</v>
       </c>
       <c r="E14" s="51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" s="51"/>
       <c r="G14" s="38"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="18">
+        <v>2528</v>
+      </c>
       <c r="E15" s="18">
         <v>1879</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>52</v>
+      <c r="F15" s="54" t="s">
+        <v>51</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="56"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="54"/>
+      <c r="A16" s="61"/>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D16" s="20">
         <v>13306</v>
@@ -1470,32 +1463,30 @@
         <v>12700</v>
       </c>
       <c r="F16" s="20"/>
-      <c r="H16" s="56"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="22"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="22">
+        <v>7</v>
+      </c>
       <c r="E17" s="22"/>
       <c r="F17" s="22"/>
       <c r="G17" s="34"/>
-      <c r="H17" s="56"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="H17" s="60"/>
+    </row>
+    <row r="18" spans="1:8" s="6" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="58" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>8</v>
-      </c>
+      <c r="C18" s="27"/>
       <c r="D18" s="28">
         <v>1753</v>
       </c>
@@ -1504,58 +1495,58 @@
       </c>
       <c r="F18" s="28"/>
       <c r="G18" s="36"/>
-      <c r="H18" s="58"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="30"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="30">
+        <v>255</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="30"/>
       <c r="G19" s="37"/>
-      <c r="H19" s="58"/>
+      <c r="H19" s="57"/>
     </row>
     <row r="20" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="18"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="18">
+        <v>25452</v>
+      </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
       <c r="G20" s="32"/>
-      <c r="H20" s="56"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="54"/>
-      <c r="B21" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="22"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="22">
+        <v>3</v>
+      </c>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="34"/>
-      <c r="H21" s="56"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
         <v>35</v>
-      </c>
-      <c r="B22" t="s">
-        <v>36</v>
       </c>
       <c r="C22" s="24" t="s">
         <v>8</v>
@@ -1573,44 +1564,51 @@
       <c r="H22" s="24"/>
     </row>
     <row r="23" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="28"/>
+      <c r="D23" s="24">
+        <v>22172</v>
+      </c>
       <c r="E23" s="28">
         <v>19210</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>53</v>
+      <c r="F23" s="56" t="s">
+        <v>52</v>
       </c>
       <c r="G23" s="36"/>
-      <c r="H23" s="58"/>
+      <c r="H23" s="57"/>
     </row>
     <row r="24" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="27"/>
+      <c r="D24" s="9">
+        <v>84411</v>
+      </c>
       <c r="E24" s="9">
         <v>79183</v>
       </c>
-      <c r="H24" s="58"/>
+      <c r="H24" s="57"/>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
+      <c r="A25" s="58"/>
       <c r="B25" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="39"/>
-      <c r="D25" s="29"/>
+      <c r="D25" s="29">
+        <v>70</v>
+      </c>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="48"/>
-      <c r="H25" s="58"/>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2EC09E0-8834-7149-81E9-DED8019D8388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-680" windowWidth="38400" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Logics</t>
   </si>
@@ -44,6 +38,9 @@
     <t>Test Size</t>
   </si>
   <si>
+    <t>Z3</t>
+  </si>
+  <si>
     <t>Z3alpha</t>
   </si>
   <si>
@@ -59,146 +56,158 @@
     <t xml:space="preserve">LIA </t>
   </si>
   <si>
+    <t>434 [1 core],  435 [4  core]</t>
+  </si>
+  <si>
+    <t>LRA</t>
+  </si>
+  <si>
+    <t>2200 [1 core], 2245 [4 core]</t>
+  </si>
+  <si>
+    <t>NIA</t>
+  </si>
+  <si>
+    <t>114 [1 core, strategy to be updated]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NRA </t>
+  </si>
+  <si>
+    <t>3815 [4 core]</t>
+  </si>
+  <si>
+    <t>Bitvec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BV </t>
+  </si>
+  <si>
+    <t>Equality+NonLinearArith</t>
+  </si>
+  <si>
+    <t>ANIA</t>
+  </si>
+  <si>
+    <t>38 [1 core], 39 [4 core]</t>
+  </si>
+  <si>
+    <t>AUFDTNIRA</t>
+  </si>
+  <si>
+    <t>1267 [1 core], 1267 [4 core]</t>
+  </si>
+  <si>
+    <t>AUFNIA</t>
+  </si>
+  <si>
+    <t>0 [1 core], 0 [4 core]</t>
+  </si>
+  <si>
+    <t>AUFNIRA</t>
+  </si>
+  <si>
+    <t>1023 [1 core], 1029 [4 core]</t>
+  </si>
+  <si>
+    <t>UFDTNIA</t>
+  </si>
+  <si>
+    <t>978 [1 core]</t>
+  </si>
+  <si>
+    <t>UFDTNIRA</t>
+  </si>
+  <si>
+    <t>3949 [1 core]</t>
+  </si>
+  <si>
+    <t>UFNIA</t>
+  </si>
+  <si>
+    <t>QF_Bitvec</t>
+  </si>
+  <si>
+    <t>QF_BV</t>
+  </si>
+  <si>
+    <t>42505 (2 min)</t>
+  </si>
+  <si>
+    <t>QF_LinearIntArith</t>
+  </si>
+  <si>
+    <t>QF_IDL</t>
+  </si>
+  <si>
+    <t>1942 [1 core], 2087 [4 core]</t>
+  </si>
+  <si>
+    <t>QF_LIA</t>
+  </si>
+  <si>
+    <t>QF_LIRA</t>
+  </si>
+  <si>
+    <t>QF_LinearRealArith</t>
+  </si>
+  <si>
+    <t>QF_LRA</t>
+  </si>
+  <si>
+    <t>1632 [4 core]</t>
+  </si>
+  <si>
+    <t>QF_RDL</t>
+  </si>
+  <si>
+    <t>QF_NonLinearIntArith</t>
+  </si>
+  <si>
+    <t>QF_NIA</t>
+  </si>
+  <si>
+    <t>QF_NIRA</t>
+  </si>
+  <si>
+    <t>QF_NonLinearRealArith</t>
+  </si>
+  <si>
+    <t>QF_NRA</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>LRA</t>
-  </si>
-  <si>
-    <t>NIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NRA </t>
-  </si>
-  <si>
-    <t>Bitvec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BV </t>
-  </si>
-  <si>
-    <t>Equality+NonLinearArith</t>
-  </si>
-  <si>
-    <t>ANIA</t>
-  </si>
-  <si>
-    <t>AUFDTNIRA</t>
-  </si>
-  <si>
-    <t>AUFNIA</t>
-  </si>
-  <si>
-    <t>AUFNIRA</t>
-  </si>
-  <si>
-    <t>UFDTNIA</t>
-  </si>
-  <si>
-    <t>UFDTNIRA</t>
-  </si>
-  <si>
-    <t>UFNIA</t>
-  </si>
-  <si>
-    <t>QF_Bitvec</t>
-  </si>
-  <si>
-    <t>QF_BV</t>
-  </si>
-  <si>
-    <t>QF_LinearIntArith</t>
-  </si>
-  <si>
-    <t>QF_IDL</t>
-  </si>
-  <si>
-    <t>QF_LIA</t>
-  </si>
-  <si>
-    <t>QF_LIRA</t>
-  </si>
-  <si>
-    <t>QF_LinearRealArith</t>
-  </si>
-  <si>
-    <t>QF_LRA</t>
-  </si>
-  <si>
-    <t>QF_RDL</t>
-  </si>
-  <si>
-    <t>QF_NonLinearIntArith</t>
-  </si>
-  <si>
-    <t>QF_NIA</t>
-  </si>
-  <si>
-    <t>QF_NIRA</t>
-  </si>
-  <si>
-    <t>QF_NonLinearRealArith</t>
-  </si>
-  <si>
-    <t>QF_NRA</t>
-  </si>
-  <si>
     <t>QF_Strings</t>
   </si>
   <si>
     <t>QF_S</t>
   </si>
   <si>
+    <t>19201 [1 core]</t>
+  </si>
+  <si>
     <t>QF_SLIA</t>
   </si>
   <si>
     <t>QF_SNIA</t>
   </si>
   <si>
-    <t>42505 (2 min)</t>
-  </si>
-  <si>
-    <t>Z3</t>
-  </si>
-  <si>
-    <t>434 [1 core]</t>
-  </si>
-  <si>
-    <t>2200 [1 core]</t>
-  </si>
-  <si>
-    <t>114 [1 core, strategy to be updated]</t>
-  </si>
-  <si>
-    <t>38 [1 core]</t>
-  </si>
-  <si>
-    <t>1267 [1 core]</t>
-  </si>
-  <si>
-    <t>0 [1 core]</t>
-  </si>
-  <si>
-    <t>1023 [1 core]</t>
-  </si>
-  <si>
-    <t>978 [1 core]</t>
-  </si>
-  <si>
-    <t>3949 [1 core]</t>
-  </si>
-  <si>
-    <t>1942 [1 core]</t>
-  </si>
-  <si>
-    <t>19201 [1 core]</t>
+    <t>70 [4 core]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* \-??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -210,37 +219,186 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,30 +413,216 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79989013336588644"/>
+        <fgColor theme="8" tint="0.799890133365886"/>
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79989013336588644"/>
+        <fgColor theme="9" tint="0.799890133365886"/>
         <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39988402966399123"/>
+        <fgColor theme="9" tint="0.399884029663991"/>
         <bgColor rgb="FF84E291"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59987182226020086"/>
+        <fgColor theme="6" tint="0.599871822260201"/>
         <bgColor rgb="FF8ED973"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -396,6 +740,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -407,7 +762,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -424,51 +781,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thick">
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -486,25 +802,292 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -529,30 +1112,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -562,47 +1163,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -611,6 +1234,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -626,215 +1252,90 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79995117038483843"/>
-          <bgColor theme="4" tint="0.79995117038483843"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="1"/>
       </font>
       <border>
@@ -845,7 +1346,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color theme="0"/>
       </font>
       <fill>
@@ -873,32 +1374,149 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.39994506668294322"/>
+          <color theme="4" tint="0.399975585192419"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="16"/>
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="totalRow" dxfId="14"/>
-      <tableStyleElement type="firstColumn" dxfId="13"/>
-      <tableStyleElement type="lastColumn" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="totalRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
-      <tableStyleElement type="pageFieldValues" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -973,9 +1591,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1040,7 +1655,7 @@
         <a:cs typeface=""/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1157,34 +1772,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="25.3333333333333" style="7" customWidth="1"/>
+    <col min="2" max="2" width="22.6666666666667" style="8" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="21.1666666666667" style="9" customWidth="1"/>
+    <col min="5" max="5" width="24.8333333333333" style="9" customWidth="1"/>
     <col min="6" max="6" width="39" style="9" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="62.6666666666667" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="17.1" spans="1:8">
       <c r="A1" s="11"/>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -1196,470 +1812,477 @@
         <v>2</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" ht="21" customHeight="1" spans="1:8">
+      <c r="A2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="17"/>
       <c r="D2" s="18">
         <v>536</v>
       </c>
       <c r="E2" s="18">
         <v>387</v>
       </c>
-      <c r="F2" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="32"/>
-      <c r="H2" s="59"/>
-    </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="61"/>
-      <c r="B3" s="19" t="s">
+      <c r="F2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="20">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="15" spans="1:8">
+      <c r="A3" s="15"/>
+      <c r="B3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="21">
         <v>2439</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="21">
         <v>2177</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="59"/>
-    </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="20">
+      <c r="F3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="24"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="15" spans="1:8">
+      <c r="A4" s="15"/>
+      <c r="B4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="21">
         <v>257</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="21">
         <v>210</v>
       </c>
-      <c r="F4" s="55" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="22">
+      <c r="F4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="24"/>
+      <c r="H4" s="21"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A5" s="15"/>
+      <c r="B5" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="27">
         <v>3819</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="27">
         <v>3810</v>
       </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="21"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="17.1" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25">
+        <v>16</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31">
         <v>6185</v>
       </c>
-      <c r="E6" s="50">
+      <c r="E6" s="32">
         <v>5585</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="25"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="62" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" ht="15.75" spans="1:8">
+      <c r="A7" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17"/>
       <c r="D7" s="18">
         <v>78</v>
       </c>
       <c r="E7" s="18"/>
-      <c r="F7" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="F7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
+    </row>
+    <row r="8" ht="15" spans="1:8">
+      <c r="A8" s="34"/>
+      <c r="B8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="21">
         <v>1567</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="21">
         <v>1265</v>
       </c>
-      <c r="F8" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="33"/>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="F8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="21"/>
+    </row>
+    <row r="9" ht="15" spans="1:8">
+      <c r="A9" s="34"/>
+      <c r="B9" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="21">
         <v>3</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="33"/>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="E9" s="21"/>
+      <c r="F9" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="24"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" ht="15" spans="1:8">
+      <c r="A10" s="34"/>
+      <c r="B10" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="21">
         <v>1480</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="21">
         <v>1029</v>
       </c>
-      <c r="F10" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="F10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="21"/>
+    </row>
+    <row r="11" ht="15" spans="1:8">
+      <c r="A11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="21">
         <v>1010</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="59"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="E11" s="21"/>
+      <c r="F11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" ht="15" spans="1:8">
+      <c r="A12" s="34"/>
+      <c r="B12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="21">
         <v>4424</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="21">
         <v>3935</v>
       </c>
-      <c r="F12" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="22">
+      <c r="F12" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" ht="15.75" spans="1:8">
+      <c r="A13" s="34"/>
+      <c r="B13" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="27">
         <v>13532</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="27">
         <v>6214</v>
       </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="17.1" spans="1:8">
       <c r="A14" s="13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24">
+        <v>33</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30">
         <v>46191</v>
       </c>
-      <c r="E14" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="61" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="64" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="16"/>
+      <c r="E14" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="30"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="15.75" spans="1:8">
+      <c r="A15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="17"/>
       <c r="D15" s="18">
         <v>2528</v>
       </c>
       <c r="E15" s="18">
         <v>1879</v>
       </c>
-      <c r="F15" s="54" t="s">
-        <v>51</v>
+      <c r="F15" s="19" t="s">
+        <v>37</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="60"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="61"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="15" spans="1:8">
+      <c r="A16" s="15"/>
       <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" s="20">
+        <v>38</v>
+      </c>
+      <c r="D16" s="21">
         <v>13306</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="41">
         <v>12700</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="H16" s="60"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
-      <c r="B17" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="22">
+      <c r="F16" s="21"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1" spans="1:8">
+      <c r="A17" s="15"/>
+      <c r="B17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="27">
         <v>7</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="60"/>
-    </row>
-    <row r="18" spans="1:8" s="6" customFormat="1" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>28</v>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" s="4" customFormat="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28">
+        <v>41</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43">
         <v>1753</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="44">
         <v>1588</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="57"/>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="30">
+      <c r="F18" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="30"/>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A19" s="13"/>
+      <c r="B19" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48">
         <v>255</v>
       </c>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="57"/>
-    </row>
-    <row r="20" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="16"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="30"/>
+    </row>
+    <row r="20" ht="15.75" spans="1:8">
+      <c r="A20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="17"/>
       <c r="D20" s="18">
         <v>25452</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61"/>
-      <c r="B21" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="22">
+      <c r="G20" s="20"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" ht="15.75" spans="1:8">
+      <c r="A21" s="15"/>
+      <c r="B21" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27">
         <v>3</v>
       </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="60"/>
-    </row>
-    <row r="22" spans="1:8" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="17.1" spans="1:8">
       <c r="A22" s="13" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="24">
+        <v>48</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="30">
         <v>12154</v>
       </c>
-      <c r="E22" s="51">
+      <c r="E22" s="38">
         <v>11569</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="30">
         <v>11676</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="24"/>
-    </row>
-    <row r="23" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58" t="s">
-        <v>36</v>
+      <c r="G22" s="39"/>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" s="6" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A23" s="13" t="s">
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="24">
+        <v>51</v>
+      </c>
+      <c r="D23" s="30">
         <v>22172</v>
       </c>
-      <c r="E23" s="28">
+      <c r="E23" s="43">
         <v>19210</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="57"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="30"/>
+    </row>
+    <row r="24" ht="16.5" spans="1:8">
+      <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="27"/>
+        <v>53</v>
+      </c>
+      <c r="C24" s="42"/>
       <c r="D24" s="9">
         <v>84411</v>
       </c>
       <c r="E24" s="9">
         <v>79183</v>
       </c>
-      <c r="H24" s="57"/>
-    </row>
-    <row r="25" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="58"/>
-      <c r="B25" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="29">
+      <c r="H24" s="30"/>
+    </row>
+    <row r="25" s="5" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A25" s="13"/>
+      <c r="B25" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="47"/>
+      <c r="D25" s="53">
         <v>70</v>
       </c>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="57"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="41"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="43"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="45"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="47"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="54"/>
+      <c r="H25" s="30"/>
+    </row>
+    <row r="26" ht="16.35" spans="1:8">
+      <c r="A26" s="55"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="58"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="59"/>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="60"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="61"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H7:H13"/>
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A13"/>
     <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="H23:H25"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="A18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="A20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="A22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="A23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A7" r:id="rId1" display="Equality+NonLinearArith"/>
+    <hyperlink ref="A14" r:id="rId2" display="QF_Bitvec"/>
+    <hyperlink ref="A15" r:id="rId3" display="QF_LinearIntArith"/>
+    <hyperlink ref="A18" r:id="rId4" display="QF_LinearRealArith"/>
+    <hyperlink ref="A20" r:id="rId5" display="QF_NonLinearIntArith"/>
+    <hyperlink ref="A22" r:id="rId6" display="QF_NonLinearRealArith"/>
+    <hyperlink ref="A23" r:id="rId7" display="QF_Strings"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -113,13 +113,13 @@
     <t>UFDTNIA</t>
   </si>
   <si>
-    <t>978 [1 core]</t>
+    <t>978 [1 core], 986 [4 core]</t>
   </si>
   <si>
     <t>UFDTNIRA</t>
   </si>
   <si>
-    <t>3949 [1 core]</t>
+    <t>3949 [1 core], 3954 [4 core]</t>
   </si>
   <si>
     <t>UFNIA</t>
@@ -1781,11 +1781,11 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -185,7 +185,7 @@
     <t>QF_S</t>
   </si>
   <si>
-    <t>19201 [1 core]</t>
+    <t>19201 [1 core], 19263 [4 core]</t>
   </si>
   <si>
     <t>QF_SLIA</t>
@@ -1781,11 +1781,11 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Logics</t>
   </si>
@@ -125,6 +125,9 @@
     <t>UFNIA</t>
   </si>
   <si>
+    <t>2483 [4core, 60s timeout, 5000 instances]</t>
+  </si>
+  <si>
     <t>QF_Bitvec</t>
   </si>
   <si>
@@ -167,6 +170,9 @@
     <t>QF_NIA</t>
   </si>
   <si>
+    <t>3968 [4core, 60s timeout, 5000 instances]</t>
+  </si>
+  <si>
     <t>QF_NIRA</t>
   </si>
   <si>
@@ -189,6 +195,9 @@
   </si>
   <si>
     <t>QF_SLIA</t>
+  </si>
+  <si>
+    <t>9418 [4core, 60s timeout, 10000 instances]</t>
   </si>
   <si>
     <t>QF_SNIA</t>
@@ -1781,11 +1790,11 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2027,23 +2036,25 @@
       <c r="E13" s="27">
         <v>6214</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="27" t="s">
+        <v>32</v>
+      </c>
       <c r="G13" s="28"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="17.1" spans="1:8">
       <c r="A14" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30">
         <v>46191</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F14" s="38"/>
       <c r="G14" s="39"/>
@@ -2051,10 +2062,10 @@
     </row>
     <row r="15" s="3" customFormat="1" ht="15.75" spans="1:8">
       <c r="A15" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="18">
@@ -2064,7 +2075,7 @@
         <v>1879</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G15" s="18"/>
       <c r="H15" s="9"/>
@@ -2072,7 +2083,7 @@
     <row r="16" ht="15" spans="1:8">
       <c r="A16" s="15"/>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" s="21">
         <v>13306</v>
@@ -2086,7 +2097,7 @@
     <row r="17" ht="15.75" customHeight="1" spans="1:8">
       <c r="A17" s="15"/>
       <c r="B17" s="25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="27">
@@ -2099,10 +2110,10 @@
     </row>
     <row r="18" s="4" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -2112,7 +2123,7 @@
         <v>1588</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="30"/>
@@ -2120,7 +2131,7 @@
     <row r="19" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="48">
@@ -2133,24 +2144,26 @@
     </row>
     <row r="20" ht="15.75" spans="1:8">
       <c r="A20" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18">
         <v>25452</v>
       </c>
       <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="G20" s="20"/>
       <c r="H20" s="9"/>
     </row>
     <row r="21" ht="15.75" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="50" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27">
@@ -2163,13 +2176,13 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="17.1" spans="1:8">
       <c r="A22" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D22" s="30">
         <v>12154</v>
@@ -2185,10 +2198,10 @@
     </row>
     <row r="23" s="6" customFormat="1" ht="16.5" spans="1:8">
       <c r="A23" s="13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="30">
         <v>22172</v>
@@ -2197,7 +2210,7 @@
         <v>19210</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="30"/>
@@ -2205,7 +2218,7 @@
     <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="9">
@@ -2214,12 +2227,15 @@
       <c r="E24" s="9">
         <v>79183</v>
       </c>
+      <c r="F24" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="H24" s="30"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A25" s="13"/>
       <c r="B25" s="52" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="53">
@@ -2227,7 +2243,7 @@
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="53" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G25" s="54"/>
       <c r="H25" s="30"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Logics</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>QF_LIA</t>
+  </si>
+  <si>
+    <t>12625 [4 core]</t>
   </si>
   <si>
     <t>QF_LIRA</t>
@@ -1790,11 +1793,11 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2080,7 +2083,7 @@
       <c r="G15" s="18"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" ht="15" spans="1:8">
+    <row r="16" spans="1:8">
       <c r="A16" s="15"/>
       <c r="B16" t="s">
         <v>39</v>
@@ -2091,13 +2094,15 @@
       <c r="E16" s="41">
         <v>12700</v>
       </c>
-      <c r="F16" s="21"/>
+      <c r="F16" s="21" t="s">
+        <v>40</v>
+      </c>
       <c r="H16" s="9"/>
     </row>
     <row r="17" ht="15.75" customHeight="1" spans="1:8">
       <c r="A17" s="15"/>
       <c r="B17" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="27">
@@ -2110,10 +2115,10 @@
     </row>
     <row r="18" s="4" customFormat="1" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C18" s="42"/>
       <c r="D18" s="43">
@@ -2123,7 +2128,7 @@
         <v>1588</v>
       </c>
       <c r="F18" s="43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G18" s="45"/>
       <c r="H18" s="30"/>
@@ -2131,7 +2136,7 @@
     <row r="19" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19" s="48">
@@ -2144,10 +2149,10 @@
     </row>
     <row r="20" ht="15.75" spans="1:8">
       <c r="A20" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B20" s="46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18">
@@ -2155,7 +2160,7 @@
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="9"/>
@@ -2163,7 +2168,7 @@
     <row r="21" ht="15.75" spans="1:8">
       <c r="A21" s="15"/>
       <c r="B21" s="50" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C21" s="26"/>
       <c r="D21" s="27">
@@ -2176,13 +2181,13 @@
     </row>
     <row r="22" s="1" customFormat="1" ht="17.1" spans="1:8">
       <c r="A22" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D22" s="30">
         <v>12154</v>
@@ -2198,10 +2203,10 @@
     </row>
     <row r="23" s="6" customFormat="1" ht="16.5" spans="1:8">
       <c r="A23" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D23" s="30">
         <v>22172</v>
@@ -2210,7 +2215,7 @@
         <v>19210</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="45"/>
       <c r="H23" s="30"/>
@@ -2218,7 +2223,7 @@
     <row r="24" ht="16.5" spans="1:8">
       <c r="A24" s="13"/>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" s="42"/>
       <c r="D24" s="9">
@@ -2228,14 +2233,14 @@
         <v>79183</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H24" s="30"/>
     </row>
     <row r="25" s="5" customFormat="1" ht="16.5" spans="1:8">
       <c r="A25" s="13"/>
       <c r="B25" s="52" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C25" s="47"/>
       <c r="D25" s="53">
@@ -2243,7 +2248,7 @@
       </c>
       <c r="E25" s="53"/>
       <c r="F25" s="53" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G25" s="54"/>
       <c r="H25" s="30"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96F7B0E5-B486-2D47-A69D-1C7BB5DC152D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E4C7D9-8BF2-404E-A556-9A50FD8537D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="1140" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
   <si>
     <t>Logics</t>
   </si>
@@ -59,27 +59,15 @@
     <t xml:space="preserve">LIA </t>
   </si>
   <si>
-    <t>434 [1 core],  435 [4  core]</t>
-  </si>
-  <si>
     <t>LRA</t>
   </si>
   <si>
-    <t>2200 [1 core], 2245 [4 core]</t>
-  </si>
-  <si>
     <t>NIA</t>
   </si>
   <si>
-    <t>114 [1 core, strategy to be updated]</t>
-  </si>
-  <si>
     <t xml:space="preserve">NRA </t>
   </si>
   <si>
-    <t>3815 [4 core]</t>
-  </si>
-  <si>
     <t>Bitvec</t>
   </si>
   <si>
@@ -92,39 +80,21 @@
     <t>ANIA</t>
   </si>
   <si>
-    <t>38 [1 core], 39 [4 core]</t>
-  </si>
-  <si>
     <t>AUFDTNIRA</t>
   </si>
   <si>
-    <t>1267 [1 core], 1267 [4 core]</t>
-  </si>
-  <si>
     <t>AUFNIA</t>
   </si>
   <si>
-    <t>0 [1 core], 0 [4 core]</t>
-  </si>
-  <si>
     <t>AUFNIRA</t>
   </si>
   <si>
-    <t>1023 [1 core], 1029 [4 core]</t>
-  </si>
-  <si>
     <t>UFDTNIA</t>
   </si>
   <si>
-    <t>978 [1 core], 986 [4 core]</t>
-  </si>
-  <si>
     <t>UFDTNIRA</t>
   </si>
   <si>
-    <t>3949 [1 core], 3954 [4 core]</t>
-  </si>
-  <si>
     <t>UFNIA</t>
   </si>
   <si>
@@ -146,15 +116,9 @@
     <t>QF_IDL</t>
   </si>
   <si>
-    <t>1942 [1 core], 2087 [4 core]</t>
-  </si>
-  <si>
     <t>QF_LIA</t>
   </si>
   <si>
-    <t>12625 [4 core]</t>
-  </si>
-  <si>
     <t>QF_LIRA</t>
   </si>
   <si>
@@ -197,9 +161,6 @@
     <t>QF_S</t>
   </si>
   <si>
-    <t>19201 [1 core], 19263 [4 core]</t>
-  </si>
-  <si>
     <t>QF_SLIA</t>
   </si>
   <si>
@@ -209,9 +170,6 @@
     <t>QF_SNIA</t>
   </si>
   <si>
-    <t>70 [4 core]</t>
-  </si>
-  <si>
     <t>Yes [put it in for now]</t>
   </si>
   <si>
@@ -222,6 +180,12 @@
   </si>
   <si>
     <t>Yes [put in for now]</t>
+  </si>
+  <si>
+    <t>Yes [putt it in for now]</t>
+  </si>
+  <si>
+    <t>Yes [put acta strategy]</t>
   </si>
 </sst>
 </file>
@@ -547,7 +511,6 @@
   <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,43 +565,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -824,6 +756,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,512 +1278,514 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="39" style="5" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="6" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="39" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="62.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="7"/>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="58" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+    <row r="2" spans="1:8" s="46" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="55">
+      <c r="C2" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="43">
         <v>536</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="43">
         <v>387</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="44">
+        <v>435</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="84"/>
+    </row>
+    <row r="3" spans="1:8" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="87"/>
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="96"/>
-    </row>
-    <row r="3" spans="1:8" s="58" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
-      <c r="B3" s="59" t="s">
+      <c r="C3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="48">
+        <v>2439</v>
+      </c>
+      <c r="E3" s="48">
+        <v>2177</v>
+      </c>
+      <c r="F3" s="49">
+        <v>2245</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="84"/>
+    </row>
+    <row r="4" spans="1:8" s="35" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="87"/>
+      <c r="B4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="60">
-        <v>2439</v>
-      </c>
-      <c r="E3" s="60">
-        <v>2177</v>
-      </c>
-      <c r="F3" s="61" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="33">
+        <v>257</v>
+      </c>
+      <c r="E4" s="33">
+        <v>210</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="84"/>
+    </row>
+    <row r="5" spans="1:8" s="46" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="87"/>
+      <c r="B5" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="62"/>
-      <c r="H3" s="96"/>
-    </row>
-    <row r="4" spans="1:8" s="47" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="99"/>
-      <c r="B4" s="43" t="s">
+      <c r="C5" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="53">
+        <v>3819</v>
+      </c>
+      <c r="E5" s="53">
+        <v>3810</v>
+      </c>
+      <c r="F5" s="53">
+        <v>3815</v>
+      </c>
+      <c r="G5" s="54"/>
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:8" s="99" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45">
-        <v>257</v>
-      </c>
-      <c r="E4" s="45">
-        <v>210</v>
-      </c>
-      <c r="F4" s="45" t="s">
+      <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="96"/>
-    </row>
-    <row r="5" spans="1:8" s="58" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="99"/>
-      <c r="B5" s="63" t="s">
+      <c r="C6" s="95"/>
+      <c r="D6" s="96">
+        <v>6185</v>
+      </c>
+      <c r="E6" s="97">
+        <v>5585</v>
+      </c>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="96"/>
+    </row>
+    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="65">
-        <v>3819</v>
-      </c>
-      <c r="E5" s="65">
-        <v>3810</v>
-      </c>
-      <c r="F5" s="65" t="s">
+      <c r="B7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="96"/>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12">
+        <v>78</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13">
+        <v>39</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="84"/>
+    </row>
+    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="88"/>
+      <c r="B8" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="D8" s="15">
+        <v>1567</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1265</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1267</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="84"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="88"/>
+      <c r="B9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23">
-        <v>6185</v>
-      </c>
-      <c r="E6" s="24">
-        <v>5585</v>
-      </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="100" t="s">
+      <c r="D9" s="15">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="84"/>
+    </row>
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="88"/>
+      <c r="B10" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="D10" s="15">
+        <v>1480</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1029</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1029</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="84"/>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="88"/>
+      <c r="B11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13">
-        <v>78</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14" t="s">
+      <c r="D11" s="15">
+        <v>1010</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="16">
+        <v>986</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="84"/>
+    </row>
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="88"/>
+      <c r="B12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="96"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="100"/>
-      <c r="B8" s="26" t="s">
+      <c r="D12" s="15">
+        <v>4424</v>
+      </c>
+      <c r="E12" s="15">
+        <v>3935</v>
+      </c>
+      <c r="F12" s="16">
+        <v>3954</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="84"/>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="88"/>
+      <c r="B13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="16">
-        <v>1567</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1265</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="18">
+        <v>13532</v>
+      </c>
+      <c r="E13" s="18">
+        <v>6214</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="96"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="100"/>
-      <c r="B9" s="26" t="s">
+      <c r="G13" s="19"/>
+      <c r="H13" s="84"/>
+    </row>
+    <row r="14" spans="1:8" s="79" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="16">
+      <c r="B14" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="76">
+        <v>46191</v>
+      </c>
+      <c r="E14" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="76"/>
+    </row>
+    <row r="15" spans="1:8" s="56" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="87" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="43">
+        <v>2528</v>
+      </c>
+      <c r="E15" s="43">
+        <v>1879</v>
+      </c>
+      <c r="F15" s="44">
+        <v>2087</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="85"/>
+    </row>
+    <row r="16" spans="1:8" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="87"/>
+      <c r="B16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="38">
+        <v>13306</v>
+      </c>
+      <c r="E16" s="39">
+        <v>12700</v>
+      </c>
+      <c r="F16" s="38">
+        <v>12625</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="85"/>
+    </row>
+    <row r="17" spans="1:8" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="87"/>
+      <c r="B17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="53">
+        <v>7</v>
+      </c>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:8" s="70" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67">
+        <v>1753</v>
+      </c>
+      <c r="E18" s="68">
+        <v>1588</v>
+      </c>
+      <c r="F18" s="67" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="69"/>
+      <c r="H18" s="86"/>
+    </row>
+    <row r="19" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="83"/>
+      <c r="B19" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="89">
+        <v>255</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="86"/>
+    </row>
+    <row r="20" spans="1:8" s="36" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="72">
+        <v>25452</v>
+      </c>
+      <c r="E20" s="72"/>
+      <c r="F20" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="73"/>
+      <c r="H20" s="85"/>
+    </row>
+    <row r="21" spans="1:8" s="58" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
+      <c r="B21" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="53">
         <v>3</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="96"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="100"/>
-      <c r="B10" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="16">
-        <v>1480</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1029</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="96"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="100"/>
-      <c r="B11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1010</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="96"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="100"/>
-      <c r="B12" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="16">
-        <v>4424</v>
-      </c>
-      <c r="E12" s="16">
-        <v>3935</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="96"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="100"/>
-      <c r="B13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="19">
-        <v>13532</v>
-      </c>
-      <c r="E13" s="19">
-        <v>6214</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="20"/>
-      <c r="H13" s="96"/>
-    </row>
-    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22">
-        <v>46191</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" s="68" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="55">
-        <v>2528</v>
-      </c>
-      <c r="E15" s="55">
-        <v>1879</v>
-      </c>
-      <c r="F15" s="56" t="s">
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="85"/>
+    </row>
+    <row r="22" spans="1:8" s="79" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="97"/>
-    </row>
-    <row r="16" spans="1:8" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="99"/>
-      <c r="B16" s="48" t="s">
+      <c r="B22" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="50">
-        <v>13306</v>
-      </c>
-      <c r="E16" s="51">
-        <v>12700</v>
-      </c>
-      <c r="F16" s="50" t="s">
+      <c r="C22" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="97"/>
-    </row>
-    <row r="17" spans="1:8" s="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="99"/>
-      <c r="B17" s="63" t="s">
+      <c r="D22" s="76">
+        <v>12154</v>
+      </c>
+      <c r="E22" s="77">
+        <v>11569</v>
+      </c>
+      <c r="F22" s="76">
+        <v>11676</v>
+      </c>
+      <c r="G22" s="78"/>
+      <c r="H22" s="76"/>
+    </row>
+    <row r="23" spans="1:8" s="80" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="65">
-        <v>7</v>
-      </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="97"/>
-    </row>
-    <row r="18" spans="1:8" s="82" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="95" t="s">
+      <c r="B23" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="70" t="s">
+      <c r="C23" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="76">
+        <v>22172</v>
+      </c>
+      <c r="E23" s="67">
+        <v>19210</v>
+      </c>
+      <c r="F23" s="81">
+        <v>19263</v>
+      </c>
+      <c r="G23" s="69"/>
+      <c r="H23" s="86"/>
+    </row>
+    <row r="24" spans="1:8" s="36" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="83"/>
+      <c r="B24" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79">
-        <v>1753</v>
-      </c>
-      <c r="E18" s="80">
-        <v>1588</v>
-      </c>
-      <c r="F18" s="79" t="s">
+      <c r="C24" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="37">
+        <v>84411</v>
+      </c>
+      <c r="E24" s="37">
+        <v>79183</v>
+      </c>
+      <c r="F24" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="98"/>
-    </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="95"/>
-      <c r="B19" s="31" t="s">
+      <c r="G24" s="40"/>
+      <c r="H24" s="86"/>
+    </row>
+    <row r="25" spans="1:8" s="64" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="83"/>
+      <c r="B25" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33">
-        <v>255</v>
-      </c>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="98"/>
-    </row>
-    <row r="20" spans="1:8" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="83" t="s">
+      <c r="C25" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="84">
-        <v>25452</v>
-      </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="85"/>
-      <c r="H20" s="97"/>
-    </row>
-    <row r="21" spans="1:8" s="70" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="65">
-        <v>3</v>
-      </c>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="97"/>
-    </row>
-    <row r="22" spans="1:8" s="91" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="88">
-        <v>12154</v>
-      </c>
-      <c r="E22" s="89">
-        <v>11569</v>
-      </c>
-      <c r="F22" s="88">
-        <v>11676</v>
-      </c>
-      <c r="G22" s="90"/>
-      <c r="H22" s="88"/>
-    </row>
-    <row r="23" spans="1:8" s="92" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="88">
-        <v>22172</v>
-      </c>
-      <c r="E23" s="79">
-        <v>19210</v>
-      </c>
-      <c r="F23" s="93" t="s">
-        <v>54</v>
-      </c>
-      <c r="G23" s="81"/>
-      <c r="H23" s="98"/>
-    </row>
-    <row r="24" spans="1:8" s="48" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95"/>
-      <c r="B24" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="49">
-        <v>84411</v>
-      </c>
-      <c r="E24" s="49">
-        <v>79183</v>
-      </c>
-      <c r="F24" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="98"/>
-    </row>
-    <row r="25" spans="1:8" s="76" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="95"/>
-      <c r="B25" s="72" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="74">
+      <c r="D25" s="62">
         <v>70</v>
       </c>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25" s="75"/>
-      <c r="H25" s="98"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62">
+        <v>70</v>
+      </c>
+      <c r="G25" s="63"/>
+      <c r="H25" s="86"/>
     </row>
     <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
+      <c r="A27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
+      <c r="A28" s="27"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="40"/>
+      <c r="A29" s="28"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="41"/>
+      <c r="A30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="42"/>
+      <c r="A31" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,15 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DB051B-AF45-4549-9076-A3BA29BE642B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EEA18-D844-4C4D-B6C9-C1D124688FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1180" yWindow="1040" windowWidth="26820" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>Logics</t>
   </si>
@@ -135,15 +146,9 @@
     <t>QF_LRA</t>
   </si>
   <si>
-    <t>1632 [4 core]</t>
-  </si>
-  <si>
     <t>QF_RDL</t>
   </si>
   <si>
-    <t>Yes [putt it in for now]</t>
-  </si>
-  <si>
     <t>QF_NonLinearIntArith</t>
   </si>
   <si>
@@ -178,13 +183,70 @@
   </si>
   <si>
     <t>QF_SNIA</t>
+  </si>
+  <si>
+    <t>5585 (upload z3.csv)</t>
+  </si>
+  <si>
+    <t>Use Default (remember to change)</t>
+  </si>
+  <si>
+    <t>Jiahao</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>387 [1min]</t>
+  </si>
+  <si>
+    <t>2177 [1min]</t>
+  </si>
+  <si>
+    <t>210 [1min]</t>
+  </si>
+  <si>
+    <t>3810 [1min]</t>
+  </si>
+  <si>
+    <t>1265 [1min]</t>
+  </si>
+  <si>
+    <t>1029 [1min]</t>
+  </si>
+  <si>
+    <t>3935 [1min]</t>
+  </si>
+  <si>
+    <t>6214 [1min]</t>
+  </si>
+  <si>
+    <t>1879 [1min]</t>
+  </si>
+  <si>
+    <t>205 [1min]</t>
+  </si>
+  <si>
+    <t>19210  [1min]</t>
+  </si>
+  <si>
+    <t>79183 [1min]</t>
+  </si>
+  <si>
+    <t>39 [1min]</t>
+  </si>
+  <si>
+    <t>247 [1min]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -214,8 +276,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -252,6 +319,24 @@
         <bgColor rgb="FF8ED973"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="17">
     <border>
@@ -466,25 +551,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -493,9 +569,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -505,9 +578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -523,9 +593,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -538,21 +605,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -577,36 +635,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -627,9 +663,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,9 +678,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,9 +687,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -698,6 +725,129 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -967,535 +1117,551 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="24.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="39" style="9" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39" style="2" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="62.6640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="21" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="13">
         <v>536</v>
       </c>
-      <c r="E2" s="18">
-        <v>387</v>
-      </c>
-      <c r="F2" s="18">
+      <c r="E2" s="90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="13">
         <v>435</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="22" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="103"/>
+    </row>
+    <row r="3" spans="1:8" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="101"/>
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="17">
         <v>2439</v>
       </c>
-      <c r="E3" s="23">
-        <v>2177</v>
-      </c>
-      <c r="F3" s="23">
+      <c r="E3" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="17">
         <v>2245</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="25" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="103"/>
+    </row>
+    <row r="4" spans="1:8" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="101"/>
+      <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27">
+      <c r="C4" s="69"/>
+      <c r="D4" s="70">
         <v>257</v>
       </c>
-      <c r="E4" s="27">
-        <v>210</v>
-      </c>
-      <c r="F4" s="27">
-        <v>247</v>
-      </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" s="21" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="30" t="s">
+      <c r="E4" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="71"/>
+      <c r="H4" s="103"/>
+    </row>
+    <row r="5" spans="1:8" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="101"/>
+      <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="23">
         <v>3819</v>
       </c>
-      <c r="E5" s="32">
-        <v>3810</v>
-      </c>
-      <c r="F5" s="32">
+      <c r="E5" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="23">
         <v>3815</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
+      <c r="G5" s="24"/>
+      <c r="H5" s="103"/>
+    </row>
+    <row r="6" spans="1:8" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37">
+      <c r="C6" s="27"/>
+      <c r="D6" s="28">
         <v>6185</v>
       </c>
-      <c r="E6" s="37">
-        <v>5585</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="87" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42">
+      <c r="C7" s="75"/>
+      <c r="D7" s="76">
         <v>78</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42">
+      <c r="E7" s="105" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="76">
         <v>39</v>
       </c>
-      <c r="G7" s="43"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="103"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="104"/>
+      <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="3">
         <v>1567</v>
       </c>
-      <c r="E8" s="20">
-        <v>1265</v>
-      </c>
-      <c r="F8" s="20">
+      <c r="E8" s="94" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3">
         <v>1267</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="44" t="s">
+      <c r="G8" s="32"/>
+      <c r="H8" s="103"/>
+    </row>
+    <row r="9" spans="1:8" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="104"/>
+      <c r="B9" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="20">
+      <c r="C9" s="65"/>
+      <c r="D9" s="66">
         <v>3</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="45"/>
-      <c r="H9" s="5"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="103"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="44" t="s">
+      <c r="A10" s="104"/>
+      <c r="B10" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="3">
         <v>1480</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="94" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3">
         <v>1029</v>
       </c>
-      <c r="F10" s="20">
-        <v>1029</v>
-      </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="44" t="s">
+      <c r="G10" s="32"/>
+      <c r="H10" s="103"/>
+    </row>
+    <row r="11" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="104"/>
+      <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="20">
+      <c r="C11" s="79"/>
+      <c r="D11" s="80">
         <v>1010</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20">
+      <c r="E11" s="80"/>
+      <c r="F11" s="80">
         <v>986</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="5"/>
+      <c r="G11" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="103"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="104"/>
+      <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="3">
         <v>4424</v>
       </c>
-      <c r="E12" s="20">
-        <v>3935</v>
-      </c>
-      <c r="F12" s="20">
+      <c r="E12" s="94" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="3">
         <v>3954</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="46" t="s">
+      <c r="G12" s="32"/>
+      <c r="H12" s="103"/>
+    </row>
+    <row r="13" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="104"/>
+      <c r="B13" s="81" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="48">
+      <c r="C13" s="82"/>
+      <c r="D13" s="83">
         <v>13532</v>
       </c>
-      <c r="E13" s="48">
-        <v>6214</v>
-      </c>
-      <c r="F13" s="48" t="s">
+      <c r="E13" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
+      <c r="G13" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="103"/>
+    </row>
+    <row r="14" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="52" t="s">
+      <c r="C14" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="35">
         <v>46191</v>
       </c>
-      <c r="E14" s="52" t="s">
+      <c r="E14" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:8" s="55" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:8" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="13">
         <v>2528</v>
       </c>
-      <c r="E15" s="18">
-        <v>1879</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="E15" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="13">
         <v>2087</v>
       </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="56" t="s">
+      <c r="G15" s="13"/>
+      <c r="H15" s="102"/>
+    </row>
+    <row r="16" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="101"/>
+      <c r="B16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="27">
+      <c r="D16" s="20">
         <v>13306</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="20">
         <v>12700</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="20">
         <v>12625</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8" s="51" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="30" t="s">
+      <c r="G16" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="102"/>
+    </row>
+    <row r="17" spans="1:8" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="101"/>
+      <c r="B17" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="23">
         <v>7</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8" s="63" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="102"/>
+    </row>
+    <row r="18" spans="1:8" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="99" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61">
+      <c r="C18" s="42"/>
+      <c r="D18" s="43">
         <v>1753</v>
       </c>
-      <c r="E18" s="61">
+      <c r="E18" s="43">
         <v>1588</v>
       </c>
-      <c r="F18" s="61" t="s">
+      <c r="F18" s="43">
+        <v>1632</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="100"/>
+    </row>
+    <row r="19" spans="1:8" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="99"/>
+      <c r="B19" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" s="67" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="56" t="s">
+      <c r="C19" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="46">
+        <v>255</v>
+      </c>
+      <c r="E19" s="96" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="46">
+        <v>203</v>
+      </c>
+      <c r="G19" s="47"/>
+      <c r="H19" s="100"/>
+    </row>
+    <row r="20" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="B20" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="65">
-        <v>255</v>
-      </c>
-      <c r="E19" s="65">
-        <v>205</v>
-      </c>
-      <c r="F19" s="65">
-        <v>203</v>
-      </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" s="56" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
+      <c r="C20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="D20" s="49">
+        <v>25452</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="G20" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H20" s="102"/>
+    </row>
+    <row r="21" spans="1:8" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="101"/>
+      <c r="B21" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="68">
-        <v>25452</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68" t="s">
+      <c r="C21" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="23">
+        <v>3</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="102"/>
+    </row>
+    <row r="22" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8" s="51" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="30" t="s">
+      <c r="B22" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C22" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="35">
+        <v>12154</v>
+      </c>
+      <c r="E22" s="35">
+        <v>11569</v>
+      </c>
+      <c r="F22" s="35">
+        <v>11676</v>
+      </c>
+      <c r="G22" s="36"/>
+      <c r="H22" s="35"/>
+    </row>
+    <row r="23" spans="1:8" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="99" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="35">
+        <v>22172</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="43">
+        <v>19263</v>
+      </c>
+      <c r="G23" s="44"/>
+      <c r="H23" s="100"/>
+    </row>
+    <row r="24" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="99"/>
+      <c r="B24" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="40">
+        <v>84411</v>
+      </c>
+      <c r="E24" s="98" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G24" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="100"/>
+    </row>
+    <row r="25" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="99"/>
+      <c r="B25" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="32">
-        <v>3</v>
-      </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="52">
-        <v>12154</v>
-      </c>
-      <c r="E22" s="52">
-        <v>11569</v>
-      </c>
-      <c r="F22" s="52">
-        <v>11676</v>
-      </c>
-      <c r="G22" s="53"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" s="70" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="52">
-        <v>22172</v>
-      </c>
-      <c r="E23" s="61">
-        <v>19210</v>
-      </c>
-      <c r="F23" s="61">
-        <v>19263</v>
-      </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="56" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="57">
-        <v>84411</v>
-      </c>
-      <c r="E24" s="57">
-        <v>79183</v>
-      </c>
-      <c r="F24" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="73">
+      <c r="D25" s="53">
         <v>70</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73">
+      <c r="E25" s="53"/>
+      <c r="F25" s="53">
         <v>70</v>
       </c>
-      <c r="G25" s="74"/>
-      <c r="H25" s="1"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="100"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
+      <c r="A27" s="59"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
+      <c r="A28" s="60"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="81"/>
+      <c r="A29" s="61"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="82"/>
+      <c r="A30" s="62"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="83"/>
+      <c r="A31" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="H23:H25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="H7:H13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826EEA18-D844-4C4D-B6C9-C1D124688FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB202F3F-06A0-7A45-A4F1-31A1D622CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1040" windowWidth="26820" windowHeight="16900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>Logics</t>
   </si>
@@ -185,9 +185,6 @@
     <t>QF_SNIA</t>
   </si>
   <si>
-    <t>5585 (upload z3.csv)</t>
-  </si>
-  <si>
     <t>Use Default (remember to change)</t>
   </si>
   <si>
@@ -200,40 +197,7 @@
     <t>Paul</t>
   </si>
   <si>
-    <t>387 [1min]</t>
-  </si>
-  <si>
-    <t>2177 [1min]</t>
-  </si>
-  <si>
     <t>210 [1min]</t>
-  </si>
-  <si>
-    <t>3810 [1min]</t>
-  </si>
-  <si>
-    <t>1265 [1min]</t>
-  </si>
-  <si>
-    <t>1029 [1min]</t>
-  </si>
-  <si>
-    <t>3935 [1min]</t>
-  </si>
-  <si>
-    <t>6214 [1min]</t>
-  </si>
-  <si>
-    <t>1879 [1min]</t>
-  </si>
-  <si>
-    <t>205 [1min]</t>
-  </si>
-  <si>
-    <t>19210  [1min]</t>
-  </si>
-  <si>
-    <t>79183 [1min]</t>
   </si>
   <si>
     <t>39 [1min]</t>
@@ -825,29 +789,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1117,7 +1081,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1169,14 +1133,14 @@
       <c r="D2" s="13">
         <v>536</v>
       </c>
-      <c r="E2" s="90" t="s">
-        <v>54</v>
+      <c r="E2" s="90">
+        <v>387</v>
       </c>
       <c r="F2" s="13">
         <v>435</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="103"/>
+      <c r="H2" s="102"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="101"/>
@@ -1189,14 +1153,14 @@
       <c r="D3" s="17">
         <v>2439</v>
       </c>
-      <c r="E3" s="91" t="s">
-        <v>55</v>
+      <c r="E3" s="91">
+        <v>2177</v>
       </c>
       <c r="F3" s="17">
         <v>2245</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="103"/>
+      <c r="H3" s="102"/>
     </row>
     <row r="4" spans="1:8" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="101"/>
@@ -1208,13 +1172,13 @@
         <v>257</v>
       </c>
       <c r="E4" s="92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" s="92" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G4" s="71"/>
-      <c r="H4" s="103"/>
+      <c r="H4" s="102"/>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="101"/>
@@ -1227,14 +1191,14 @@
       <c r="D5" s="23">
         <v>3819</v>
       </c>
-      <c r="E5" s="93" t="s">
-        <v>57</v>
+      <c r="E5" s="93">
+        <v>3810</v>
       </c>
       <c r="F5" s="23">
         <v>3815</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="103"/>
+      <c r="H5" s="102"/>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
@@ -1247,17 +1211,17 @@
       <c r="D6" s="28">
         <v>6185</v>
       </c>
-      <c r="E6" s="73" t="s">
-        <v>49</v>
+      <c r="E6" s="73">
+        <v>5585</v>
       </c>
       <c r="F6" s="28"/>
       <c r="G6" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="103" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -1267,36 +1231,36 @@
       <c r="D7" s="76">
         <v>78</v>
       </c>
-      <c r="E7" s="105" t="s">
-        <v>66</v>
+      <c r="E7" s="99" t="s">
+        <v>54</v>
       </c>
       <c r="F7" s="76">
         <v>39</v>
       </c>
       <c r="G7" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="H7" s="103"/>
+        <v>52</v>
+      </c>
+      <c r="H7" s="102"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="104"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>1567</v>
       </c>
-      <c r="E8" s="94" t="s">
-        <v>58</v>
+      <c r="E8" s="94">
+        <v>1265</v>
       </c>
       <c r="F8" s="3">
         <v>1267</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="103"/>
+      <c r="H8" s="102"/>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="104"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="64" t="s">
         <v>18</v>
       </c>
@@ -1306,28 +1270,28 @@
       </c>
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="103"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="102"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="104"/>
+      <c r="A10" s="103"/>
       <c r="B10" s="31" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="3">
         <v>1480</v>
       </c>
-      <c r="E10" s="94" t="s">
-        <v>59</v>
+      <c r="E10" s="94">
+        <v>1029</v>
       </c>
       <c r="F10" s="3">
         <v>1029</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="H10" s="103"/>
+      <c r="H10" s="102"/>
     </row>
     <row r="11" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="104"/>
+      <c r="A11" s="103"/>
       <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
@@ -1340,29 +1304,29 @@
         <v>986</v>
       </c>
       <c r="G11" s="89" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="103"/>
+        <v>52</v>
+      </c>
+      <c r="H11" s="102"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="104"/>
+      <c r="A12" s="103"/>
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3">
         <v>4424</v>
       </c>
-      <c r="E12" s="94" t="s">
-        <v>60</v>
+      <c r="E12" s="94">
+        <v>3935</v>
       </c>
       <c r="F12" s="3">
         <v>3954</v>
       </c>
       <c r="G12" s="32"/>
-      <c r="H12" s="103"/>
+      <c r="H12" s="102"/>
     </row>
     <row r="13" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="104"/>
+      <c r="A13" s="103"/>
       <c r="B13" s="81" t="s">
         <v>22</v>
       </c>
@@ -1370,16 +1334,16 @@
       <c r="D13" s="83">
         <v>13532</v>
       </c>
-      <c r="E13" s="95" t="s">
-        <v>61</v>
+      <c r="E13" s="95">
+        <v>6214</v>
       </c>
       <c r="F13" s="83" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="103"/>
+        <v>50</v>
+      </c>
+      <c r="H13" s="102"/>
     </row>
     <row r="14" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
@@ -1414,14 +1378,14 @@
       <c r="D15" s="13">
         <v>2528</v>
       </c>
-      <c r="E15" s="90" t="s">
-        <v>62</v>
+      <c r="E15" s="90">
+        <v>1879</v>
       </c>
       <c r="F15" s="13">
         <v>2087</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="102"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="101"/>
@@ -1441,9 +1405,9 @@
         <v>12625</v>
       </c>
       <c r="G16" s="86" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="102"/>
+        <v>51</v>
+      </c>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="101"/>
@@ -1459,10 +1423,10 @@
       <c r="E17" s="23"/>
       <c r="F17" s="23"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="102"/>
+      <c r="H17" s="104"/>
     </row>
     <row r="18" spans="1:8" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="105" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -1479,27 +1443,23 @@
         <v>1632</v>
       </c>
       <c r="G18" s="44"/>
-      <c r="H18" s="100"/>
-    </row>
-    <row r="19" spans="1:8" s="48" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="99"/>
+      <c r="H18" s="106"/>
+    </row>
+    <row r="19" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="105"/>
       <c r="B19" s="39" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="46">
         <v>255</v>
       </c>
-      <c r="E19" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="46">
-        <v>203</v>
-      </c>
+      <c r="E19" s="96"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="100"/>
+      <c r="H19" s="106"/>
     </row>
     <row r="20" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
@@ -1519,9 +1479,9 @@
         <v>40</v>
       </c>
       <c r="G20" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="102"/>
+        <v>50</v>
+      </c>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="1:8" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="101"/>
@@ -1537,7 +1497,7 @@
       <c r="E21" s="23"/>
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
-      <c r="H21" s="102"/>
+      <c r="H21" s="104"/>
     </row>
     <row r="22" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="33" t="s">
@@ -1561,8 +1521,8 @@
       <c r="G22" s="36"/>
       <c r="H22" s="35"/>
     </row>
-    <row r="23" spans="1:8" s="50" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="99" t="s">
+    <row r="23" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="105" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -1574,17 +1534,17 @@
       <c r="D23" s="35">
         <v>22172</v>
       </c>
-      <c r="E23" s="97" t="s">
-        <v>64</v>
+      <c r="E23" s="97">
+        <v>19210</v>
       </c>
       <c r="F23" s="43">
         <v>19263</v>
       </c>
       <c r="G23" s="44"/>
-      <c r="H23" s="100"/>
+      <c r="H23" s="106"/>
     </row>
     <row r="24" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="99"/>
+      <c r="A24" s="105"/>
       <c r="B24" s="39" t="s">
         <v>46</v>
       </c>
@@ -1594,19 +1554,19 @@
       <c r="D24" s="40">
         <v>84411</v>
       </c>
-      <c r="E24" s="98" t="s">
-        <v>65</v>
+      <c r="E24" s="98">
+        <v>79183</v>
       </c>
       <c r="F24" s="40" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="85" t="s">
-        <v>51</v>
-      </c>
-      <c r="H24" s="100"/>
+        <v>50</v>
+      </c>
+      <c r="H24" s="106"/>
     </row>
     <row r="25" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="99"/>
+      <c r="A25" s="105"/>
       <c r="B25" s="51" t="s">
         <v>48</v>
       </c>
@@ -1621,7 +1581,7 @@
         <v>70</v>
       </c>
       <c r="G25" s="54"/>
-      <c r="H25" s="100"/>
+      <c r="H25" s="106"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
@@ -1650,18 +1610,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="H23:H25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="H7:H13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="H15:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="H23:H25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB202F3F-06A0-7A45-A4F1-31A1D622CE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124B3F1-319E-504A-9631-95FA8604672A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>Logics</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>247 [1min]</t>
+  </si>
+  <si>
+    <t>12700 | 2268 [1min, 3000set]</t>
+  </si>
+  <si>
+    <t>12625 [John] ||</t>
   </si>
 </sst>
 </file>
@@ -515,7 +521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -795,23 +801,26 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1081,7 +1090,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,7 +1130,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="15" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="103" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -1140,10 +1149,10 @@
         <v>435</v>
       </c>
       <c r="G2" s="14"/>
-      <c r="H2" s="102"/>
+      <c r="H2" s="105"/>
     </row>
     <row r="3" spans="1:8" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="101"/>
+      <c r="A3" s="103"/>
       <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
@@ -1160,10 +1169,10 @@
         <v>2245</v>
       </c>
       <c r="G3" s="18"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="105"/>
     </row>
     <row r="4" spans="1:8" s="72" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="101"/>
+      <c r="A4" s="103"/>
       <c r="B4" s="68" t="s">
         <v>11</v>
       </c>
@@ -1178,10 +1187,10 @@
         <v>55</v>
       </c>
       <c r="G4" s="71"/>
-      <c r="H4" s="102"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="101"/>
+      <c r="A5" s="103"/>
       <c r="B5" s="21" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>3815</v>
       </c>
       <c r="G5" s="24"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="105"/>
     </row>
     <row r="6" spans="1:8" s="29" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="25" t="s">
@@ -1221,7 +1230,7 @@
       <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="106" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="74" t="s">
@@ -1240,10 +1249,10 @@
       <c r="G7" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="102"/>
+      <c r="H7" s="105"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="31" t="s">
         <v>17</v>
       </c>
@@ -1257,10 +1266,10 @@
         <v>1267</v>
       </c>
       <c r="G8" s="32"/>
-      <c r="H8" s="102"/>
+      <c r="H8" s="105"/>
     </row>
     <row r="9" spans="1:8" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
+      <c r="A9" s="106"/>
       <c r="B9" s="64" t="s">
         <v>18</v>
       </c>
@@ -1271,10 +1280,10 @@
       <c r="E9" s="66"/>
       <c r="F9" s="66"/>
       <c r="G9" s="100"/>
-      <c r="H9" s="102"/>
+      <c r="H9" s="105"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="31" t="s">
         <v>19</v>
       </c>
@@ -1288,10 +1297,10 @@
         <v>1029</v>
       </c>
       <c r="G10" s="32"/>
-      <c r="H10" s="102"/>
+      <c r="H10" s="105"/>
     </row>
     <row r="11" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
+      <c r="A11" s="106"/>
       <c r="B11" s="78" t="s">
         <v>20</v>
       </c>
@@ -1306,10 +1315,10 @@
       <c r="G11" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="102"/>
+      <c r="H11" s="105"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
+      <c r="A12" s="106"/>
       <c r="B12" s="31" t="s">
         <v>21</v>
       </c>
@@ -1323,10 +1332,10 @@
         <v>3954</v>
       </c>
       <c r="G12" s="32"/>
-      <c r="H12" s="102"/>
+      <c r="H12" s="105"/>
     </row>
     <row r="13" spans="1:8" s="77" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="103"/>
+      <c r="A13" s="106"/>
       <c r="B13" s="81" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1352,7 @@
       <c r="G13" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="102"/>
+      <c r="H13" s="105"/>
     </row>
     <row r="14" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="33" t="s">
@@ -1366,7 +1375,7 @@
       <c r="H14" s="35"/>
     </row>
     <row r="15" spans="1:8" s="38" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A15" s="101" t="s">
+      <c r="A15" s="103" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1387,8 +1396,8 @@
       <c r="G15" s="13"/>
       <c r="H15" s="104"/>
     </row>
-    <row r="16" spans="1:8" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="101"/>
+    <row r="16" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="103"/>
       <c r="B16" s="39" t="s">
         <v>30</v>
       </c>
@@ -1398,11 +1407,11 @@
       <c r="D16" s="20">
         <v>13306</v>
       </c>
-      <c r="E16" s="20">
-        <v>12700</v>
-      </c>
-      <c r="F16" s="20">
-        <v>12625</v>
+      <c r="E16" s="107" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="107" t="s">
+        <v>57</v>
       </c>
       <c r="G16" s="86" t="s">
         <v>51</v>
@@ -1410,7 +1419,7 @@
       <c r="H16" s="104"/>
     </row>
     <row r="17" spans="1:8" s="34" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="101"/>
+      <c r="A17" s="103"/>
       <c r="B17" s="21" t="s">
         <v>32</v>
       </c>
@@ -1426,7 +1435,7 @@
       <c r="H17" s="104"/>
     </row>
     <row r="18" spans="1:8" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="105" t="s">
+      <c r="A18" s="101" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="34" t="s">
@@ -1443,10 +1452,10 @@
         <v>1632</v>
       </c>
       <c r="G18" s="44"/>
-      <c r="H18" s="106"/>
+      <c r="H18" s="102"/>
     </row>
     <row r="19" spans="1:8" s="48" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="105"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="39" t="s">
         <v>36</v>
       </c>
@@ -1459,10 +1468,10 @@
       <c r="E19" s="96"/>
       <c r="F19" s="46"/>
       <c r="G19" s="47"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="102"/>
     </row>
     <row r="20" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A20" s="101" t="s">
+      <c r="A20" s="103" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="39" t="s">
@@ -1484,7 +1493,7 @@
       <c r="H20" s="104"/>
     </row>
     <row r="21" spans="1:8" s="34" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A21" s="101"/>
+      <c r="A21" s="103"/>
       <c r="B21" s="21" t="s">
         <v>41</v>
       </c>
@@ -1522,7 +1531,7 @@
       <c r="H22" s="35"/>
     </row>
     <row r="23" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="101" t="s">
         <v>44</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -1541,10 +1550,10 @@
         <v>19263</v>
       </c>
       <c r="G23" s="44"/>
-      <c r="H23" s="106"/>
+      <c r="H23" s="102"/>
     </row>
     <row r="24" spans="1:8" s="39" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="105"/>
+      <c r="A24" s="101"/>
       <c r="B24" s="39" t="s">
         <v>46</v>
       </c>
@@ -1563,10 +1572,10 @@
       <c r="G24" s="85" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="106"/>
+      <c r="H24" s="102"/>
     </row>
     <row r="25" spans="1:8" s="55" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="105"/>
+      <c r="A25" s="101"/>
       <c r="B25" s="51" t="s">
         <v>48</v>
       </c>
@@ -1581,7 +1590,7 @@
         <v>70</v>
       </c>
       <c r="G25" s="54"/>
-      <c r="H25" s="106"/>
+      <c r="H25" s="102"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
@@ -1610,18 +1619,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="H15:H17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="H18:H19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="H23:H25"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="H7:H13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="H15:H17"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6972C9D-7B41-AD4B-B60B-81E92FEC74A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A461F0F-0F71-8D40-9EFB-4255D99F65DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2520" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -512,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -596,12 +596,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,9 +675,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -711,9 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -794,6 +782,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -812,10 +803,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,24 +1307,24 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="66" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="63" customWidth="1"/>
     <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
     <col min="4" max="4" width="21.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="36.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="39" style="79" customWidth="1"/>
+    <col min="6" max="6" width="39" style="75" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="13" customWidth="1"/>
     <col min="8" max="8" width="62.6640625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="15" t="s">
@@ -1359,10 +1347,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105" t="s">
+      <c r="A2" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="17" t="s">
@@ -1374,15 +1362,15 @@
       <c r="E2" s="18">
         <v>387</v>
       </c>
-      <c r="F2" s="67">
+      <c r="F2" s="64">
         <v>435</v>
       </c>
       <c r="G2" s="19"/>
-      <c r="H2" s="102"/>
+      <c r="H2" s="99"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="105"/>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="56" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1394,15 +1382,15 @@
       <c r="E3" s="21">
         <v>2177</v>
       </c>
-      <c r="F3" s="68">
+      <c r="F3" s="65">
         <v>2245</v>
       </c>
       <c r="G3" s="22"/>
-      <c r="H3" s="102"/>
+      <c r="H3" s="99"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="102"/>
+      <c r="B4" s="56" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="17"/>
@@ -1412,15 +1400,15 @@
       <c r="E4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="65" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="22"/>
-      <c r="H4" s="102"/>
+      <c r="H4" s="99"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="105"/>
-      <c r="B5" s="59" t="s">
+      <c r="A5" s="102"/>
+      <c r="B5" s="57" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="23" t="s">
@@ -1432,17 +1420,17 @@
       <c r="E5" s="24">
         <v>3810</v>
       </c>
-      <c r="F5" s="69">
+      <c r="F5" s="66">
         <v>3815</v>
       </c>
       <c r="G5" s="25"/>
-      <c r="H5" s="102"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="27"/>
@@ -1452,35 +1440,35 @@
       <c r="E6" s="28">
         <v>5585</v>
       </c>
-      <c r="F6" s="70"/>
+      <c r="F6" s="67"/>
       <c r="G6" s="29" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="97" t="s">
+      <c r="B7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="99">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95">
         <v>78</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="95">
         <v>39</v>
       </c>
-      <c r="F7" s="100">
+      <c r="F7" s="96">
         <v>39</v>
       </c>
-      <c r="G7" s="107"/>
-      <c r="H7" s="102"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="106"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="103"/>
+      <c r="B8" s="59" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="20">
@@ -1489,29 +1477,28 @@
       <c r="E8" s="20">
         <v>1265</v>
       </c>
-      <c r="F8" s="71">
+      <c r="F8" s="68">
         <v>1267</v>
       </c>
       <c r="G8" s="31"/>
-      <c r="H8" s="102"/>
-    </row>
-    <row r="9" spans="1:8" s="113" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="106"/>
-      <c r="B9" s="108" t="s">
+      <c r="H8" s="99"/>
+    </row>
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="103"/>
+      <c r="B9" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110">
+      <c r="D9" s="20">
         <v>3</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="102"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="106"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="59" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="20">
@@ -1520,33 +1507,35 @@
       <c r="E10" s="20">
         <v>1029</v>
       </c>
-      <c r="F10" s="71">
+      <c r="F10" s="68">
         <v>1029</v>
       </c>
       <c r="G10" s="31"/>
-      <c r="H10" s="102"/>
-    </row>
-    <row r="11" spans="1:8" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="106"/>
-      <c r="B11" s="62" t="s">
+      <c r="H10" s="99"/>
+    </row>
+    <row r="11" spans="1:8" s="109" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="103"/>
+      <c r="B11" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33">
+      <c r="C11" s="105"/>
+      <c r="D11" s="106">
         <v>1010</v>
       </c>
-      <c r="E11" s="33"/>
-      <c r="F11" s="72">
+      <c r="E11" s="106">
+        <v>988</v>
+      </c>
+      <c r="F11" s="107">
         <v>986</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="102"/>
+      <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="106"/>
-      <c r="B12" s="61" t="s">
+      <c r="A12" s="103"/>
+      <c r="B12" s="59" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="20">
@@ -1555,57 +1544,57 @@
       <c r="E12" s="20">
         <v>3935</v>
       </c>
-      <c r="F12" s="71">
+      <c r="F12" s="68">
         <v>3954</v>
       </c>
       <c r="G12" s="31"/>
-      <c r="H12" s="102"/>
+      <c r="H12" s="99"/>
     </row>
     <row r="13" spans="1:8" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106"/>
-      <c r="B13" s="63" t="s">
+      <c r="A13" s="103"/>
+      <c r="B13" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36">
+      <c r="C13" s="33"/>
+      <c r="D13" s="34">
         <v>13532</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <v>6214</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H13" s="102"/>
+      <c r="H13" s="99"/>
     </row>
     <row r="14" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="37">
         <v>46191</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="74"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="39"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="105" t="s">
+      <c r="A15" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="57" t="s">
+      <c r="B15" s="55" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="17" t="s">
@@ -1617,111 +1606,111 @@
       <c r="E15" s="18">
         <v>1879</v>
       </c>
-      <c r="F15" s="67">
+      <c r="F15" s="64">
         <v>2087</v>
       </c>
       <c r="G15" s="18"/>
-      <c r="H15" s="103"/>
-    </row>
-    <row r="16" spans="1:8" s="80" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="105"/>
-      <c r="B16" s="91" t="s">
+      <c r="H15" s="100"/>
+    </row>
+    <row r="16" spans="1:8" s="76" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="102"/>
+      <c r="B16" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="89">
         <v>13306</v>
       </c>
-      <c r="E16" s="94" t="s">
+      <c r="E16" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="95" t="s">
+      <c r="F16" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="103"/>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="105"/>
-      <c r="B17" s="59" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="39" t="s">
         <v>37</v>
       </c>
       <c r="D17" s="24">
         <v>7</v>
       </c>
       <c r="E17" s="24"/>
-      <c r="F17" s="69"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="103"/>
+      <c r="H17" s="100"/>
     </row>
     <row r="18" spans="1:8" s="8" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="98" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="43">
+      <c r="C18" s="40"/>
+      <c r="D18" s="41">
         <v>1753</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="41">
         <v>1588</v>
       </c>
-      <c r="F18" s="75">
+      <c r="F18" s="71">
         <v>1632</v>
       </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="104"/>
-    </row>
-    <row r="19" spans="1:8" s="85" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="80" t="s">
+      <c r="G18" s="42"/>
+      <c r="H18" s="101"/>
+    </row>
+    <row r="19" spans="1:8" s="81" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="98"/>
+      <c r="B19" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="81" t="s">
+      <c r="C19" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="82">
+      <c r="D19" s="78">
         <v>255</v>
       </c>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="104"/>
-    </row>
-    <row r="20" spans="1:8" s="80" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="105" t="s">
+      <c r="E19" s="78"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="101"/>
+    </row>
+    <row r="20" spans="1:8" s="76" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="87">
+      <c r="D20" s="83">
         <v>25452</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="89" t="s">
+      <c r="F20" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="90"/>
-      <c r="H20" s="103"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="100"/>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="105"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="102"/>
+      <c r="B21" s="57" t="s">
         <v>44</v>
       </c>
       <c r="C21" s="23" t="s">
@@ -1731,34 +1720,34 @@
         <v>3</v>
       </c>
       <c r="E21" s="24"/>
-      <c r="F21" s="69"/>
+      <c r="F21" s="66"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="103"/>
+      <c r="H21" s="100"/>
     </row>
     <row r="22" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="36" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="39" t="s">
+      <c r="C22" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="37">
         <v>12154</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="37">
         <v>11569</v>
       </c>
-      <c r="F22" s="74">
+      <c r="F22" s="70">
         <v>11676</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="39"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" s="9" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="101" t="s">
+      <c r="A23" s="98" t="s">
         <v>47</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1767,20 +1756,20 @@
       <c r="C23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="37">
         <v>22172</v>
       </c>
-      <c r="E23" s="43">
+      <c r="E23" s="41">
         <v>19210</v>
       </c>
-      <c r="F23" s="75">
+      <c r="F23" s="71">
         <v>19263</v>
       </c>
-      <c r="G23" s="44"/>
-      <c r="H23" s="104"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="101"/>
     </row>
     <row r="24" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="101"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="4" t="s">
         <v>49</v>
       </c>
@@ -1793,56 +1782,56 @@
       <c r="E24" s="32">
         <v>79183</v>
       </c>
-      <c r="F24" s="76" t="s">
+      <c r="F24" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="H24" s="104"/>
+      <c r="H24" s="101"/>
     </row>
     <row r="25" spans="1:8" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="101"/>
-      <c r="B25" s="64" t="s">
+      <c r="A25" s="98"/>
+      <c r="B25" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="46">
+      <c r="D25" s="44">
         <v>70</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="77">
+      <c r="E25" s="44"/>
+      <c r="F25" s="73">
         <v>70</v>
       </c>
-      <c r="G25" s="47"/>
-      <c r="H25" s="104"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="101"/>
     </row>
     <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
+      <c r="A27" s="49"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="52"/>
+      <c r="A28" s="50"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="53"/>
+      <c r="A29" s="51"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="54"/>
+      <c r="A30" s="52"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="55"/>
+      <c r="A31" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A461F0F-0F71-8D40-9EFB-4255D99F65DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55FE55-F86D-E441-BB46-C4D6E236CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2520" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
   <si>
     <t>Logics</t>
   </si>
@@ -1307,7 +1307,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1528,9 +1528,7 @@
       <c r="F11" s="107">
         <v>986</v>
       </c>
-      <c r="G11" s="108" t="s">
-        <v>17</v>
-      </c>
+      <c r="G11" s="108"/>
       <c r="H11" s="99"/>
     </row>
     <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55FE55-F86D-E441-BB46-C4D6E236CCBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D24571-79BE-D048-BF55-2058C0A21503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2520" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1860" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>Logics</t>
   </si>
@@ -78,42 +78,6 @@
   </si>
   <si>
     <t xml:space="preserve">NRA </t>
-  </si>
-  <si>
-    <t>Bitvec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BV </t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Equality+NonLinearArith</t>
-  </si>
-  <si>
-    <t>ANIA</t>
-  </si>
-  <si>
-    <t>AUFDTNIRA</t>
-  </si>
-  <si>
-    <t>AUFNIA</t>
-  </si>
-  <si>
-    <t>AUFNIRA</t>
-  </si>
-  <si>
-    <t>UFDTNIA</t>
-  </si>
-  <si>
-    <t>UFDTNIRA</t>
-  </si>
-  <si>
-    <t>UFNIA</t>
-  </si>
-  <si>
-    <t>2483 [4core, 60s timeout, 5000 instances]</t>
   </si>
   <si>
     <t>Jiahao</t>
@@ -213,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -224,23 +188,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
     </font>
     <font>
@@ -508,17 +455,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -557,241 +502,186 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -800,28 +690,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -1301,559 +1171,414 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="63" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="39" style="75" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="13" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="11" customWidth="1"/>
+    <col min="6" max="6" width="39" style="60" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="62.6640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="54" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>536</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>387</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="52">
         <v>435</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="99"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="102"/>
-      <c r="B3" s="56" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="19">
         <v>2439</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="19">
         <v>2177</v>
       </c>
-      <c r="F3" s="65">
+      <c r="F3" s="53">
         <v>2245</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="102"/>
-      <c r="B4" s="56" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="21">
+      <c r="C4" s="16"/>
+      <c r="D4" s="19">
         <v>257</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="99"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="22">
         <v>3819</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="22">
         <v>3810</v>
       </c>
-      <c r="F5" s="66">
+      <c r="F5" s="54">
         <v>3815</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="99"/>
-    </row>
-    <row r="6" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="G5" s="23"/>
+      <c r="H5" s="79"/>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="28">
+        <v>46191</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="17">
+        <v>2528</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1879</v>
+      </c>
+      <c r="F7" s="52">
+        <v>2087</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="80"/>
+    </row>
+    <row r="8" spans="1:8" s="61" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="82"/>
+      <c r="B8" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="74">
+        <v>13306</v>
+      </c>
+      <c r="E8" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="80"/>
+    </row>
+    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82"/>
+      <c r="B9" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="22">
+        <v>7</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="80"/>
+    </row>
+    <row r="10" spans="1:8" s="7" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32">
+        <v>1753</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1588</v>
+      </c>
+      <c r="F10" s="56">
+        <v>1632</v>
+      </c>
+      <c r="G10" s="33"/>
+      <c r="H10" s="81"/>
+    </row>
+    <row r="11" spans="1:8" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="63">
+        <v>255</v>
+      </c>
+      <c r="E11" s="63"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="81"/>
+    </row>
+    <row r="12" spans="1:8" s="61" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="82" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="68">
+        <v>25452</v>
+      </c>
+      <c r="E12" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="71"/>
+      <c r="H12" s="80"/>
+    </row>
+    <row r="13" spans="1:8" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="82"/>
+      <c r="B13" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="22">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="80"/>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="28">
+        <v>12154</v>
+      </c>
+      <c r="E14" s="28">
+        <v>11569</v>
+      </c>
+      <c r="F14" s="55">
+        <v>11676</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="28">
+        <v>22172</v>
+      </c>
+      <c r="E15" s="32">
+        <v>19210</v>
+      </c>
+      <c r="F15" s="56">
+        <v>19263</v>
+      </c>
+      <c r="G15" s="33"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="78"/>
+      <c r="B16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="25">
+        <v>84411</v>
+      </c>
+      <c r="E16" s="25">
+        <v>79183</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28">
-        <v>6185</v>
-      </c>
-      <c r="E6" s="28">
-        <v>5585</v>
-      </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95">
-        <v>78</v>
-      </c>
-      <c r="E7" s="95">
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" spans="1:8" s="9" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78"/>
+      <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="96">
-        <v>39</v>
-      </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="99"/>
-    </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="103"/>
-      <c r="B8" s="59" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="20">
-        <v>1567</v>
-      </c>
-      <c r="E8" s="20">
-        <v>1265</v>
-      </c>
-      <c r="F8" s="68">
-        <v>1267</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="99"/>
-    </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="103"/>
-      <c r="B9" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="20">
-        <v>3</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="99"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="103"/>
-      <c r="B10" s="59" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="20">
-        <v>1480</v>
-      </c>
-      <c r="E10" s="20">
-        <v>1029</v>
-      </c>
-      <c r="F10" s="68">
-        <v>1029</v>
-      </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="99"/>
-    </row>
-    <row r="11" spans="1:8" s="109" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106">
-        <v>1010</v>
-      </c>
-      <c r="E11" s="106">
-        <v>988</v>
-      </c>
-      <c r="F11" s="107">
-        <v>986</v>
-      </c>
-      <c r="G11" s="108"/>
-      <c r="H11" s="99"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="103"/>
-      <c r="B12" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="20">
-        <v>4424</v>
-      </c>
-      <c r="E12" s="20">
-        <v>3935</v>
-      </c>
-      <c r="F12" s="68">
-        <v>3954</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="99"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="103"/>
-      <c r="B13" s="60" t="s">
+      <c r="C17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34">
-        <v>13532</v>
-      </c>
-      <c r="E13" s="34">
-        <v>6214</v>
-      </c>
-      <c r="F13" s="69" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="99"/>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="37">
-        <v>46191</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="70"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="37"/>
-    </row>
-    <row r="15" spans="1:8" s="7" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="18">
-        <v>2528</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1879</v>
-      </c>
-      <c r="F15" s="64">
-        <v>2087</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="100"/>
-    </row>
-    <row r="16" spans="1:8" s="76" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="102"/>
-      <c r="B16" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="88" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="89">
-        <v>13306</v>
-      </c>
-      <c r="E16" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="92" t="s">
-        <v>35</v>
-      </c>
-      <c r="H16" s="100"/>
-    </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="24">
-        <v>7</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="100"/>
-    </row>
-    <row r="18" spans="1:8" s="8" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="98" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41">
-        <v>1753</v>
-      </c>
-      <c r="E18" s="41">
-        <v>1588</v>
-      </c>
-      <c r="F18" s="71">
-        <v>1632</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="101"/>
-    </row>
-    <row r="19" spans="1:8" s="81" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="78">
-        <v>255</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="101"/>
-    </row>
-    <row r="20" spans="1:8" s="76" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="83">
-        <v>25452</v>
-      </c>
-      <c r="E20" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="G20" s="86"/>
-      <c r="H20" s="100"/>
-    </row>
-    <row r="21" spans="1:8" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="102"/>
-      <c r="B21" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="24">
-        <v>3</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="100"/>
-    </row>
-    <row r="22" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="37">
-        <v>12154</v>
-      </c>
-      <c r="E22" s="37">
-        <v>11569</v>
-      </c>
-      <c r="F22" s="70">
-        <v>11676</v>
-      </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="37"/>
-    </row>
-    <row r="23" spans="1:8" s="9" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="37">
-        <v>22172</v>
-      </c>
-      <c r="E23" s="41">
-        <v>19210</v>
-      </c>
-      <c r="F23" s="71">
-        <v>19263</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="101"/>
-    </row>
-    <row r="24" spans="1:8" s="4" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="32">
-        <v>84411</v>
-      </c>
-      <c r="E24" s="32">
-        <v>79183</v>
-      </c>
-      <c r="F24" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="101"/>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="44">
+      <c r="D17" s="35">
         <v>70</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="73">
+      <c r="E17" s="35"/>
+      <c r="F17" s="58">
         <v>70</v>
       </c>
-      <c r="G25" s="45"/>
-      <c r="H25" s="101"/>
-    </row>
-    <row r="26" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="46"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="49"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="50"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="53"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="41"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="43"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A23:A25"/>
+  <mergeCells count="10">
+    <mergeCell ref="A15:A17"/>
     <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H7:H13"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:H13"/>
     <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="H23:H25"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A15" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="A18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="A20" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="A22" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="A23" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="A15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D24571-79BE-D048-BF55-2058C0A21503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3959570-C1D4-9140-B702-6188FF8CF7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="1860" windowWidth="29400" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Logics</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>QF_SLIA</t>
-  </si>
-  <si>
-    <t>9418 [4core, 60s timeout, 10000 instances]</t>
   </si>
   <si>
     <t>QF_SNIA</t>
@@ -171,6 +168,12 @@
   </si>
   <si>
     <t>Yes [P]</t>
+  </si>
+  <si>
+    <t>9418 [60s timeout, 10000 instances]</t>
+  </si>
+  <si>
+    <t>9189 [60s timeout, 10000 instances]</t>
   </si>
 </sst>
 </file>
@@ -458,13 +461,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -517,15 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,9 +609,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,6 +679,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1177,387 +1176,391 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="51" customWidth="1"/>
-    <col min="3" max="3" width="24.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="11" customWidth="1"/>
-    <col min="6" max="6" width="39" style="60" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="62.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="39" style="55" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="11" customWidth="1"/>
+    <col min="8" max="8" width="62.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13"/>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="12"/>
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="16">
         <v>536</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>387</v>
       </c>
-      <c r="F2" s="52">
+      <c r="F2" s="48">
         <v>435</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="79"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="82"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>2439</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>2177</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="49">
         <v>2245</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="79"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="82"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="19">
+      <c r="C4" s="15"/>
+      <c r="D4" s="18">
         <v>257</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="22">
+      <c r="D5" s="21">
         <v>3819</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="21">
         <v>3810</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="50">
         <v>3815</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="79"/>
-    </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="74"/>
+    </row>
+    <row r="6" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="24">
         <v>46191</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
+      <c r="F6" s="51"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>2528</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>1879</v>
       </c>
-      <c r="F7" s="52">
+      <c r="F7" s="48">
         <v>2087</v>
       </c>
-      <c r="G7" s="17"/>
-      <c r="H7" s="80"/>
-    </row>
-    <row r="8" spans="1:8" s="61" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="82"/>
-      <c r="B8" s="72" t="s">
+      <c r="G7" s="16"/>
+      <c r="H7" s="75"/>
+    </row>
+    <row r="8" spans="1:8" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="77"/>
+      <c r="B8" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="73" t="s">
+      <c r="C8" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="69">
+        <v>13306</v>
+      </c>
+      <c r="E8" s="70" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="75"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="77"/>
+      <c r="B9" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="21">
+        <v>7</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="75"/>
+    </row>
+    <row r="10" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28">
+        <v>1753</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1588</v>
+      </c>
+      <c r="F10" s="52">
+        <v>1632</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="76"/>
+    </row>
+    <row r="11" spans="1:8" s="61" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="58">
+        <v>255</v>
+      </c>
+      <c r="E11" s="58">
+        <v>205</v>
+      </c>
+      <c r="F11" s="59">
+        <v>203</v>
+      </c>
+      <c r="G11" s="60"/>
+      <c r="H11" s="76"/>
+    </row>
+    <row r="12" spans="1:8" s="56" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="63">
+        <v>25452</v>
+      </c>
+      <c r="E12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="66"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:8" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="77"/>
+      <c r="B13" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="21">
+        <v>3</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="75"/>
+    </row>
+    <row r="14" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="24">
+        <v>12154</v>
+      </c>
+      <c r="E14" s="24">
+        <v>11569</v>
+      </c>
+      <c r="F14" s="51">
+        <v>11676</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" spans="1:8" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="24">
+        <v>22172</v>
+      </c>
+      <c r="E15" s="28">
+        <v>19210</v>
+      </c>
+      <c r="F15" s="52">
+        <v>19263</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="76"/>
+    </row>
+    <row r="16" spans="1:8" s="56" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="79">
+        <v>84411</v>
+      </c>
+      <c r="E16" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="74">
-        <v>13306</v>
-      </c>
-      <c r="E8" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="76" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="80"/>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="30" t="s">
+      <c r="G16" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="76"/>
+    </row>
+    <row r="17" spans="1:8" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="22">
-        <v>7</v>
-      </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="80"/>
-    </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="32">
-        <v>1753</v>
-      </c>
-      <c r="E10" s="32">
-        <v>1588</v>
-      </c>
-      <c r="F10" s="56">
-        <v>1632</v>
-      </c>
-      <c r="G10" s="33"/>
-      <c r="H10" s="81"/>
-    </row>
-    <row r="11" spans="1:8" s="66" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="78"/>
-      <c r="B11" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="63">
-        <v>255</v>
-      </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="81"/>
-    </row>
-    <row r="12" spans="1:8" s="61" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="68">
-        <v>25452</v>
-      </c>
-      <c r="E12" s="69" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="80"/>
-    </row>
-    <row r="13" spans="1:8" s="4" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="22">
-        <v>3</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="28">
-        <v>12154</v>
-      </c>
-      <c r="E14" s="28">
-        <v>11569</v>
-      </c>
-      <c r="F14" s="55">
-        <v>11676</v>
-      </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="28">
-        <v>22172</v>
-      </c>
-      <c r="E15" s="32">
-        <v>19210</v>
-      </c>
-      <c r="F15" s="56">
-        <v>19263</v>
-      </c>
-      <c r="G15" s="33"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:8" s="3" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78"/>
-      <c r="B16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="25">
-        <v>84411</v>
-      </c>
-      <c r="E16" s="25">
-        <v>79183</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="81"/>
-    </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="35">
+      <c r="D17" s="31">
         <v>70</v>
       </c>
-      <c r="E17" s="35"/>
-      <c r="F17" s="58">
+      <c r="E17" s="31"/>
+      <c r="F17" s="53">
         <v>70</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="81"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="76"/>
     </row>
     <row r="18" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="40"/>
+      <c r="A19" s="36"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="41"/>
+      <c r="A20" s="37"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
+      <c r="A21" s="38"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="43"/>
+      <c r="A22" s="39"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
+      <c r="A23" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3959570-C1D4-9140-B702-6188FF8CF7EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4BFE38-C726-DB4A-A1AA-D4E982D5B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="940" windowWidth="29400" windowHeight="17220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
   <si>
     <t>Logics</t>
   </si>
@@ -461,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -688,6 +689,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,11 +1179,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1262,7 +1269,9 @@
       <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="18">
         <v>257</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>28</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D11" s="58">
         <v>255</v>
@@ -1586,4 +1595,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34963BD-B509-0745-8F21-6E17929D8995}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="A1:D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="4" width="25.83203125" style="81" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="55">
+        <v>536</v>
+      </c>
+      <c r="C2" s="55">
+        <v>387</v>
+      </c>
+      <c r="D2" s="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55">
+        <v>2439</v>
+      </c>
+      <c r="C3" s="55">
+        <v>2177</v>
+      </c>
+      <c r="D3" s="9">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="55">
+        <v>257</v>
+      </c>
+      <c r="C4" s="55">
+        <v>210</v>
+      </c>
+      <c r="D4" s="9">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="55">
+        <v>3819</v>
+      </c>
+      <c r="C5" s="55">
+        <v>3810</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3815</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="55">
+        <v>46191</v>
+      </c>
+      <c r="C6" s="55">
+        <v>39383</v>
+      </c>
+      <c r="D6" s="9">
+        <v>40148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="55">
+        <v>2528</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1879</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="55">
+        <v>3000</v>
+      </c>
+      <c r="C8" s="55">
+        <v>1845</v>
+      </c>
+      <c r="D8" s="82">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="55">
+        <v>1753</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1588</v>
+      </c>
+      <c r="D9" s="9">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="55">
+        <v>255</v>
+      </c>
+      <c r="C10" s="9">
+        <v>205</v>
+      </c>
+      <c r="D10" s="55">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="55">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="55">
+        <v>3148</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3968</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="55">
+        <v>12154</v>
+      </c>
+      <c r="C12" s="55">
+        <v>11569</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="55">
+        <v>22172</v>
+      </c>
+      <c r="C13" s="55">
+        <v>19210</v>
+      </c>
+      <c r="D13" s="9">
+        <v>19263</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="55">
+        <v>10000</v>
+      </c>
+      <c r="C14" s="55">
+        <v>9189</v>
+      </c>
+      <c r="D14" s="9">
+        <v>9418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/smtcomp25_stats.xlsx
+++ b/docs/smtcomp25_stats.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyanglu/Desktop/z3alpha/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4BFE38-C726-DB4A-A1AA-D4E982D5B539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF9BDCA-BC28-B843-A156-BB3915810D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2180" yWindow="940" windowWidth="29400" windowHeight="17220" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17220" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Division_summuary" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Logics</t>
   </si>
@@ -81,9 +82,6 @@
     <t xml:space="preserve">NRA </t>
   </si>
   <si>
-    <t>Jiahao</t>
-  </si>
-  <si>
     <t>QF_Bitvec</t>
   </si>
   <si>
@@ -103,9 +101,6 @@
   </si>
   <si>
     <t>QF_LIA</t>
-  </si>
-  <si>
-    <t>John</t>
   </si>
   <si>
     <t>QF_LIRA</t>
@@ -175,6 +170,21 @@
   </si>
   <si>
     <t>9189 [60s timeout, 10000 instances]</t>
+  </si>
+  <si>
+    <t>Z3-noodler</t>
+  </si>
+  <si>
+    <t>cvc5</t>
+  </si>
+  <si>
+    <t>Ostrich2</t>
+  </si>
+  <si>
+    <t>QF_SLIA (total 10000)</t>
+  </si>
+  <si>
+    <t>QF_S (total 22172)</t>
   </si>
 </sst>
 </file>
@@ -462,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -666,6 +676,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -681,20 +706,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1183,7 +1197,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:F1048576"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1237,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -1242,10 +1256,10 @@
         <v>435</v>
       </c>
       <c r="G2" s="17"/>
-      <c r="H2" s="74"/>
+      <c r="H2" s="79"/>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
+      <c r="A3" s="82"/>
       <c r="B3" s="43" t="s">
         <v>10</v>
       </c>
@@ -1262,10 +1276,10 @@
         <v>2245</v>
       </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="74"/>
+      <c r="H3" s="79"/>
     </row>
     <row r="4" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="43" t="s">
         <v>11</v>
       </c>
@@ -1282,10 +1296,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="74"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" s="2" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="44" t="s">
         <v>14</v>
       </c>
@@ -1302,34 +1316,34 @@
         <v>3815</v>
       </c>
       <c r="G5" s="22"/>
-      <c r="H5" s="74"/>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>18</v>
       </c>
       <c r="D6" s="24">
         <v>46191</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" s="51"/>
       <c r="G6" s="25"/>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="42" t="s">
         <v>20</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>21</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>9</v>
@@ -1344,37 +1358,35 @@
         <v>2087</v>
       </c>
       <c r="G7" s="16"/>
-      <c r="H7" s="75"/>
+      <c r="H7" s="80"/>
     </row>
     <row r="8" spans="1:8" s="56" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="67" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8" s="69">
         <v>13306</v>
       </c>
       <c r="E8" s="70" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F8" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="72"/>
+      <c r="H8" s="80"/>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="82"/>
+      <c r="B9" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="H8" s="75"/>
-    </row>
-    <row r="9" spans="1:8" s="3" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="77"/>
-      <c r="B9" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="D9" s="21">
         <v>7</v>
@@ -1382,14 +1394,14 @@
       <c r="E9" s="21"/>
       <c r="F9" s="50"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="75"/>
+      <c r="H9" s="80"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73" t="s">
-        <v>26</v>
+      <c r="A10" s="78" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="27"/>
       <c r="D10" s="28">
@@ -1402,12 +1414,12 @@
         <v>1632</v>
       </c>
       <c r="G10" s="29"/>
-      <c r="H10" s="76"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:8" s="61" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
+      <c r="A11" s="78"/>
       <c r="B11" s="56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="57" t="s">
         <v>9</v>
@@ -1422,14 +1434,14 @@
         <v>203</v>
       </c>
       <c r="G11" s="60"/>
-      <c r="H11" s="76"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:8" s="56" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="77" t="s">
-        <v>29</v>
+      <c r="A12" s="82" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="62" t="s">
         <v>9</v>
@@ -1438,21 +1450,21 @@
         <v>25452</v>
       </c>
       <c r="E12" s="64" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="66"/>
-      <c r="H12" s="75"/>
+      <c r="H12" s="80"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="21">
         <v>3</v>
@@ -1460,14 +1472,14 @@
       <c r="E13" s="21"/>
       <c r="F13" s="50"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="75"/>
+      <c r="H13" s="80"/>
     </row>
     <row r="14" spans="1:8" s="4" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>9</v>
@@ -1485,11 +1497,11 @@
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="1:8" s="7" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73" t="s">
-        <v>35</v>
+      <c r="A15" s="78" t="s">
+        <v>33</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>9</v>
@@ -1504,37 +1516,35 @@
         <v>19263</v>
       </c>
       <c r="G15" s="29"/>
-      <c r="H15" s="76"/>
-    </row>
-    <row r="16" spans="1:8" s="56" customFormat="1" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" s="56" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="78"/>
       <c r="B16" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="79">
+        <v>35</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="74">
         <v>84411</v>
       </c>
       <c r="E16" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="F16" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="76"/>
+        <v>43</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="66"/>
+      <c r="H16" s="81"/>
     </row>
     <row r="17" spans="1:8" s="8" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="31">
         <v>70</v>
@@ -1544,7 +1554,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="32"/>
-      <c r="H17" s="76"/>
+      <c r="H17" s="81"/>
     </row>
     <row r="18" spans="1:8" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A18" s="33"/>
@@ -1599,15 +1609,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34963BD-B509-0745-8F21-6E17929D8995}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="A1:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="25.83203125" style="81" customWidth="1"/>
+    <col min="1" max="4" width="25.83203125" style="76" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1682,7 +1692,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="55">
         <v>46191</v>
@@ -1696,7 +1706,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="55">
         <v>2528</v>
@@ -1710,7 +1720,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="55">
         <v>3000</v>
@@ -1718,13 +1728,13 @@
       <c r="C8" s="55">
         <v>1845</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="77">
         <v>2131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="55" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="55">
         <v>1753</v>
@@ -1738,7 +1748,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="55">
         <v>255</v>
@@ -1752,7 +1762,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="55" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="55">
         <v>5000</v>
@@ -1766,7 +1776,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="55">
         <v>12154</v>
@@ -1780,7 +1790,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="55">
         <v>22172</v>
@@ -1794,7 +1804,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="55" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B14" s="55">
         <v>10000</v>
@@ -1805,6 +1815,93 @@
       <c r="D14" s="9">
         <v>9418</v>
       </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="55">
+        <v>9189</v>
+      </c>
+      <c r="E19" s="9">
+        <v>9418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BE9DD8-F63E-C643-A263-B868C664C5D8}">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="55"/>
+      <c r="B1" s="84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="84" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="55">
+        <v>9189</v>
+      </c>
+      <c r="C2" s="55">
+        <v>9418</v>
+      </c>
+      <c r="D2" s="55">
+        <v>9940</v>
+      </c>
+      <c r="E2" s="55">
+        <v>9602</v>
+      </c>
+      <c r="F2" s="55">
+        <v>9408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="55">
+        <v>19210</v>
+      </c>
+      <c r="C3" s="55">
+        <v>19263</v>
+      </c>
+      <c r="D3" s="55">
+        <v>21449</v>
+      </c>
+      <c r="E3" s="55">
+        <v>19137</v>
+      </c>
+      <c r="F3" s="55">
+        <v>20055</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H19" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
